--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -5,20 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\performance_data_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\manuel\TUM\MolSim-WS23-24\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC26AC-FE64-4BD9-A3BB-71A9A34880FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E25CE2-0A98-4314-8BFD-A6C3A5FF7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="10650" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -172,16 +186,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1016,11 +1027,707 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="339467295"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Contest1 / Rayleigh-Taylor-Instability 2D (10,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200"/>
+              <a:t>Simulation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+              <a:t> of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speedup (cluster:serial)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1976214233704592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1284697021567953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.939894741321833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5110713209353452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5729190943152691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6EBB-4A00-9535-6ED07928F3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Speedup (cluster:inter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$5:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6EBB-4A00-9535-6ED07928F3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="104290431"/>
+        <c:axId val="296003935"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104290431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296003935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="296003935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104290431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1144,6 +1851,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1660,20 +2407,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>378957</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>96610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1698,7 +2961,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351064</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102735</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0655FD03-EE9B-450F-9241-E027245CBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+          <cell r="I5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="H6">
+            <v>1.1570277529095792</v>
+          </cell>
+          <cell r="I6">
+            <v>1.2215770171149145</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+          <cell r="H7">
+            <v>1.6987381703470033</v>
+          </cell>
+          <cell r="I7">
+            <v>1.854756380510441</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>8</v>
+          </cell>
+          <cell r="H8">
+            <v>2.2673684210526313</v>
+          </cell>
+          <cell r="I8">
+            <v>2.3415348564733449</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>16</v>
+          </cell>
+          <cell r="H9">
+            <v>1.619548872180451</v>
+          </cell>
+          <cell r="I9">
+            <v>2.6452680344142951</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>28</v>
+          </cell>
+          <cell r="H10">
+            <v>0.39206406989443027</v>
+          </cell>
+          <cell r="I10">
+            <v>2.8570407433881342</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>56</v>
+          </cell>
+          <cell r="I11">
+            <v>1.8686302010285181</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>72</v>
+          </cell>
+          <cell r="I12">
+            <v>1.4749077490774907</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>96</v>
+          </cell>
+          <cell r="I13">
+            <v>0.66649991662497921</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1964,24 +3372,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +3397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +3414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2016,8 +3424,16 @@
       <c r="D5">
         <v>160842.557654</v>
       </c>
+      <c r="H5">
+        <f>$C$5/C5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" t="e">
+        <f>$E$5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2027,8 +3443,16 @@
       <c r="D6">
         <v>192628.49283599999</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H13" si="0">$C$5/C6</f>
+        <v>1.1976214233704592</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" ref="J6:J13" si="1">$E$5/E6</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2038,8 +3462,16 @@
       <c r="D7">
         <v>342454.025547</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.1284697021567953</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>8</v>
       </c>
@@ -2049,8 +3481,16 @@
       <c r="D8">
         <v>472860.18942800001</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.939894741321833</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>16</v>
       </c>
@@ -2060,8 +3500,16 @@
       <c r="D9">
         <v>886414.80667299998</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>5.5110713209353452</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>28</v>
       </c>
@@ -2077,8 +3525,16 @@
       <c r="F10">
         <v>1580353.0508719999</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.5729190943152691</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>56</v>
       </c>
@@ -2088,8 +3544,16 @@
       <c r="F11">
         <v>1822091.0316679999</v>
       </c>
+      <c r="H11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>72</v>
       </c>
@@ -2099,8 +3563,16 @@
       <c r="F12">
         <v>1536948.2355829999</v>
       </c>
+      <c r="H12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>96</v>
       </c>
@@ -2109,6 +3581,14 @@
       </c>
       <c r="F13">
         <v>1076472.614537</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\manuel\TUM\MolSim-WS23-24\sheet05\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSim-WS23-24\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E25CE2-0A98-4314-8BFD-A6C3A5FF7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E82358-0F37-49F2-9F89-20D046A71A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="10650" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>1000 Iterations Rayleigh-Taylor 3D</t>
   </si>
@@ -58,12 +56,36 @@
   <si>
     <t>Inter Cluster</t>
   </si>
+  <si>
+    <t>Simulations 20.01.2024, branch: 84-parallel-v1</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>MUPs</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +93,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -88,12 +130,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1811,6 +2061,2806 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$31:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>348.70800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.239000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.385000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.685000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EA8-4F35-8483-98D9A6AB122F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$31:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>343.89600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.39299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.31200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.361000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.170999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.563000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EA8-4F35-8483-98D9A6AB122F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$31:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>343.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.337999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.997999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.545000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2EA8-4F35-8483-98D9A6AB122F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$31:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>345.28766666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.52766666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.57833333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.370999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.361333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.051666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.495000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.972333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.080333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.597666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2EA8-4F35-8483-98D9A6AB122F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$31:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>286772.88734399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344746.74903800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>617375.41364200006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1072512.5752099999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1553132.6685929999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2324338.1447129999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2652590.2543830001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2101944.2984759999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2642217.348799</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2968680.4215529999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C275-44EC-8FB7-C5D615A69DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$31:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>290785.58633999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347955.58694900002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619916.68319799996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1076611.6876960001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1553735.958111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2329536.1893449998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2690269.295957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2119721.892488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2104997.2635039999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2735005.3332600002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C275-44EC-8FB7-C5D615A69DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$31:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>291325.20924400003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348370.15025200002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619398.316475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1074125.3933979999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1554291.398551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2325689.5669570002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2658513.8907349999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2489667.8783049998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2639358.1081079999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2736352.4421950001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C275-44EC-8FB7-C5D615A69DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$31:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>289627.89430933335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>347024.16207966668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>618896.80443833338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1074416.5521013334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1553720.0084183335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2326521.3003383335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2667124.4803583338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2237111.3564229999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2462190.9068036666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2813346.0656693336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C275-44EC-8FB7-C5D615A69DDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Million Molecule Updates</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$31:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1996284574102105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1528374574010964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.739937150763093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4159819833812222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0663428174878575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2497944242552865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.329647924330005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.213623272650409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.352026124387709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E6E-4222-AE6A-FEA1C2E9E4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$31:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1966053452937269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1318686768498312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7024245295206928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3432358105063624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0111817737088558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2517284980226524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.28963879938952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2390013892981946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4055739408691839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E6E-4222-AE6A-FEA1C2E9E4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$31:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1939028207714515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1261404671502104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6520800085115441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3352451117535526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.983138750639565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1255881961983256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5460090623910787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0598342483108123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.392776029552607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E6E-4222-AE6A-FEA1C2E9E4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$31:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$31:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1967229023675372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1369676214839033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6980182997575981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.364830850821404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0203089311292626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2088989643063517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6777796719464559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4051817171233587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6997275102300708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E6E-4222-AE6A-FEA1C2E9E4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [Time(1 Thread)/Time(n Threads)]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1891,6 +4941,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2923,20 +6093,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>378957</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>21090</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423781</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96610</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>178173</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2963,16 +7681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>351064</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>395887</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>102735</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104095</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147558</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70477</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2999,6 +7717,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575159</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711A38BE-9783-4FC7-B1FA-821DDC4D4AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>578394</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346168</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>182206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2F0B7C-E081-4C6C-B217-01875527891B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>15762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268677</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>186762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73774FE9-E4FE-44B5-99D5-E92BFCA13FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3013,94 +7845,428 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5">
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>Run 1</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>Run 2</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Run 3</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>Avg</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
             <v>1</v>
           </cell>
-          <cell r="H5">
+          <cell r="C34">
+            <v>3.7440000000000002</v>
+          </cell>
+          <cell r="D34">
+            <v>2670940.1709400001</v>
+          </cell>
+          <cell r="E34">
             <v>1</v>
           </cell>
-          <cell r="I5">
+          <cell r="F34">
+            <v>3.7010000000000001</v>
+          </cell>
+          <cell r="G34">
+            <v>2701972.4398810002</v>
+          </cell>
+          <cell r="H34">
             <v>1</v>
           </cell>
+          <cell r="I34">
+            <v>3.6989999999999998</v>
+          </cell>
+          <cell r="J34">
+            <v>2703433.3603679999</v>
+          </cell>
+          <cell r="K34">
+            <v>1</v>
+          </cell>
+          <cell r="L34">
+            <v>3.7146666666666666</v>
+          </cell>
+          <cell r="M34">
+            <v>2692115.3237296664</v>
+          </cell>
+          <cell r="N34">
+            <v>1</v>
+          </cell>
         </row>
-        <row r="6">
-          <cell r="B6">
+        <row r="35">
+          <cell r="B35">
             <v>2</v>
           </cell>
-          <cell r="H6">
-            <v>1.1570277529095792</v>
-          </cell>
-          <cell r="I6">
-            <v>1.2215770171149145</v>
+          <cell r="C35">
+            <v>2.9689999999999999</v>
+          </cell>
+          <cell r="D35">
+            <v>3368137.4200070002</v>
+          </cell>
+          <cell r="E35">
+            <v>1.2610306500505222</v>
+          </cell>
+          <cell r="F35">
+            <v>2.97</v>
+          </cell>
+          <cell r="G35">
+            <v>3367003.3670029999</v>
+          </cell>
+          <cell r="H35">
+            <v>1.246127946127946</v>
+          </cell>
+          <cell r="I35">
+            <v>2.9630000000000001</v>
+          </cell>
+          <cell r="J35">
+            <v>3374957.8130270001</v>
+          </cell>
+          <cell r="K35">
+            <v>1.248396895038812</v>
+          </cell>
+          <cell r="L35">
+            <v>2.9673333333333338</v>
+          </cell>
+          <cell r="M35">
+            <v>3370032.8666790002</v>
+          </cell>
+          <cell r="N35">
+            <v>1.25185183040576</v>
           </cell>
         </row>
-        <row r="7">
-          <cell r="B7">
+        <row r="36">
+          <cell r="B36">
             <v>4</v>
           </cell>
-          <cell r="H7">
-            <v>1.6987381703470033</v>
-          </cell>
-          <cell r="I7">
-            <v>1.854756380510441</v>
+          <cell r="C36">
+            <v>2.1070000000000002</v>
+          </cell>
+          <cell r="D36">
+            <v>4746084.480304</v>
+          </cell>
+          <cell r="E36">
+            <v>1.7769340294257236</v>
+          </cell>
+          <cell r="F36">
+            <v>2.1150000000000002</v>
+          </cell>
+          <cell r="G36">
+            <v>4728132.3877069997</v>
+          </cell>
+          <cell r="H36">
+            <v>1.7498817966903071</v>
+          </cell>
+          <cell r="I36">
+            <v>2.1240000000000001</v>
+          </cell>
+          <cell r="J36">
+            <v>4708097.9284370001</v>
+          </cell>
+          <cell r="K36">
+            <v>1.7415254237288134</v>
+          </cell>
+          <cell r="L36">
+            <v>2.1153333333333335</v>
+          </cell>
+          <cell r="M36">
+            <v>4727438.2654826669</v>
+          </cell>
+          <cell r="N36">
+            <v>1.7561137499482813</v>
           </cell>
         </row>
-        <row r="8">
-          <cell r="B8">
+        <row r="37">
+          <cell r="B37">
             <v>8</v>
           </cell>
-          <cell r="H8">
-            <v>2.2673684210526313</v>
-          </cell>
-          <cell r="I8">
-            <v>2.3415348564733449</v>
+          <cell r="C37">
+            <v>1.6970000000000001</v>
+          </cell>
+          <cell r="D37">
+            <v>5892751.9151440002</v>
+          </cell>
+          <cell r="E37">
+            <v>2.206246317030053</v>
+          </cell>
+          <cell r="F37">
+            <v>1.6819999999999999</v>
+          </cell>
+          <cell r="G37">
+            <v>5945303.2104639998</v>
+          </cell>
+          <cell r="H37">
+            <v>2.2003567181926278</v>
+          </cell>
+          <cell r="I37">
+            <v>1.6639999999999999</v>
+          </cell>
+          <cell r="J37">
+            <v>6009615.3846150003</v>
+          </cell>
+          <cell r="K37">
+            <v>2.2229567307692308</v>
+          </cell>
+          <cell r="L37">
+            <v>1.681</v>
+          </cell>
+          <cell r="M37">
+            <v>5949223.5034076674</v>
+          </cell>
+          <cell r="N37">
+            <v>2.2098532553306369</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="B9">
+        <row r="38">
+          <cell r="B38">
             <v>16</v>
           </cell>
-          <cell r="H9">
-            <v>1.619548872180451</v>
-          </cell>
-          <cell r="I9">
-            <v>2.6452680344142951</v>
+          <cell r="C38">
+            <v>1.419</v>
+          </cell>
+          <cell r="D38">
+            <v>7047216.3495420003</v>
+          </cell>
+          <cell r="E38">
+            <v>2.6384778012684991</v>
+          </cell>
+          <cell r="F38">
+            <v>1.4470000000000001</v>
+          </cell>
+          <cell r="G38">
+            <v>6910850.034554</v>
+          </cell>
+          <cell r="H38">
+            <v>2.5577055977885279</v>
+          </cell>
+          <cell r="I38">
+            <v>1.42</v>
+          </cell>
+          <cell r="J38">
+            <v>7042253.5211270005</v>
+          </cell>
+          <cell r="K38">
+            <v>2.6049295774647887</v>
+          </cell>
+          <cell r="L38">
+            <v>1.4286666666666665</v>
+          </cell>
+          <cell r="M38">
+            <v>7000106.6350743333</v>
+          </cell>
+          <cell r="N38">
+            <v>2.6003709921739389</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="B10">
+        <row r="39">
+          <cell r="B39">
             <v>28</v>
           </cell>
-          <cell r="H10">
-            <v>0.39206406989443027</v>
-          </cell>
-          <cell r="I10">
-            <v>2.8570407433881342</v>
+          <cell r="C39">
+            <v>1.359</v>
+          </cell>
+          <cell r="D39">
+            <v>7358351.7292130003</v>
+          </cell>
+          <cell r="E39">
+            <v>2.7549668874172188</v>
+          </cell>
+          <cell r="F39">
+            <v>1.331</v>
+          </cell>
+          <cell r="G39">
+            <v>7513148.0090159997</v>
+          </cell>
+          <cell r="H39">
+            <v>2.7806160781367395</v>
+          </cell>
+          <cell r="I39">
+            <v>1.3160000000000001</v>
+          </cell>
+          <cell r="J39">
+            <v>7598784.1945289997</v>
+          </cell>
+          <cell r="K39">
+            <v>2.8107902735562309</v>
+          </cell>
+          <cell r="L39">
+            <v>1.3353333333333335</v>
+          </cell>
+          <cell r="M39">
+            <v>7490094.6442526663</v>
+          </cell>
+          <cell r="N39">
+            <v>2.7821244130367297</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="B11">
+        <row r="40">
+          <cell r="B40">
+            <v>42</v>
+          </cell>
+          <cell r="C40">
+            <v>1.3240000000000001</v>
+          </cell>
+          <cell r="D40">
+            <v>7552870.0906339996</v>
+          </cell>
+          <cell r="E40">
+            <v>2.8277945619335347</v>
+          </cell>
+          <cell r="F40">
+            <v>1.29</v>
+          </cell>
+          <cell r="G40">
+            <v>7751937.9844960002</v>
+          </cell>
+          <cell r="H40">
+            <v>2.8689922480620154</v>
+          </cell>
+          <cell r="I40">
+            <v>1.304</v>
+          </cell>
+          <cell r="J40">
+            <v>7668711.6564419996</v>
+          </cell>
+          <cell r="K40">
+            <v>2.8366564417177913</v>
+          </cell>
+          <cell r="L40">
+            <v>1.306</v>
+          </cell>
+          <cell r="M40">
+            <v>7657839.9105240004</v>
+          </cell>
+          <cell r="N40">
+            <v>2.8444810839044474</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
             <v>56</v>
           </cell>
-          <cell r="I11">
-            <v>1.8686302010285181</v>
+          <cell r="C41">
+            <v>1.915</v>
+          </cell>
+          <cell r="D41">
+            <v>5221932.114883</v>
+          </cell>
+          <cell r="E41">
+            <v>1.9550913838120105</v>
+          </cell>
+          <cell r="F41">
+            <v>1.8360000000000001</v>
+          </cell>
+          <cell r="G41">
+            <v>5446623.0936820004</v>
+          </cell>
+          <cell r="H41">
+            <v>2.0157952069716774</v>
+          </cell>
+          <cell r="I41">
+            <v>4.4160000000000004</v>
+          </cell>
+          <cell r="J41">
+            <v>2264492.7536229999</v>
+          </cell>
+          <cell r="K41">
+            <v>0.83763586956521729</v>
+          </cell>
+          <cell r="L41">
+            <v>2.7223333333333337</v>
+          </cell>
+          <cell r="M41">
+            <v>4311015.987396</v>
+          </cell>
+          <cell r="N41">
+            <v>1.6028408201163018</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="B12">
+        <row r="42">
+          <cell r="B42">
             <v>72</v>
           </cell>
-          <cell r="I12">
-            <v>1.4749077490774907</v>
+          <cell r="C42">
+            <v>5.335</v>
+          </cell>
+          <cell r="D42">
+            <v>1874414.2455480001</v>
+          </cell>
+          <cell r="E42">
+            <v>0.70178069353327088</v>
+          </cell>
+          <cell r="F42">
+            <v>1.9930000000000001</v>
+          </cell>
+          <cell r="G42">
+            <v>5017561.4651279999</v>
+          </cell>
+          <cell r="H42">
+            <v>1.8569994982438534</v>
+          </cell>
+          <cell r="I42">
+            <v>8.6</v>
+          </cell>
+          <cell r="J42">
+            <v>1162790.6976739999</v>
+          </cell>
+          <cell r="K42">
+            <v>0.43011627906976746</v>
+          </cell>
+          <cell r="L42">
+            <v>5.3093333333333339</v>
+          </cell>
+          <cell r="M42">
+            <v>2684922.1361166663</v>
+          </cell>
+          <cell r="N42">
+            <v>0.9962988236156306</v>
           </cell>
         </row>
-        <row r="13">
-          <cell r="B13">
+        <row r="43">
+          <cell r="B43">
             <v>96</v>
           </cell>
-          <cell r="I13">
-            <v>0.66649991662497921</v>
+          <cell r="C43">
+            <v>35.875999999999998</v>
+          </cell>
+          <cell r="D43">
+            <v>278737.87490200001</v>
+          </cell>
+          <cell r="E43">
+            <v>0.1043594603634742</v>
+          </cell>
+          <cell r="F43">
+            <v>10.127000000000001</v>
+          </cell>
+          <cell r="G43">
+            <v>987459.26730499999</v>
+          </cell>
+          <cell r="H43">
+            <v>0.36545867482966327</v>
+          </cell>
+          <cell r="I43">
+            <v>10.798</v>
+          </cell>
+          <cell r="J43">
+            <v>926097.42544899997</v>
+          </cell>
+          <cell r="K43">
+            <v>0.34256343767364328</v>
+          </cell>
+          <cell r="L43">
+            <v>18.933666666666667</v>
+          </cell>
+          <cell r="M43">
+            <v>730764.85588533338</v>
+          </cell>
+          <cell r="N43">
+            <v>0.27079385762226021</v>
           </cell>
         </row>
       </sheetData>
@@ -3372,24 +8538,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +8567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +8584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3433,7 +8603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3452,7 +8622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3471,7 +8641,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8</v>
       </c>
@@ -3490,7 +8660,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>16</v>
       </c>
@@ -3509,7 +8679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>28</v>
       </c>
@@ -3534,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>56</v>
       </c>
@@ -3553,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
@@ -3572,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>96</v>
       </c>
@@ -3591,7 +8761,566 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="23">
+        <v>348.70800000000003</v>
+      </c>
+      <c r="D31" s="24">
+        <v>286772.88734399999</v>
+      </c>
+      <c r="E31" s="25">
+        <f>C$31/C31</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <v>343.89600000000002</v>
+      </c>
+      <c r="G31" s="16">
+        <v>290785.58633999998</v>
+      </c>
+      <c r="H31" s="25">
+        <f>F$31/F31</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>343.25900000000001</v>
+      </c>
+      <c r="J31" s="16">
+        <v>291325.20924400003</v>
+      </c>
+      <c r="K31" s="25">
+        <f>I$31/I31</f>
+        <v>1</v>
+      </c>
+      <c r="L31" s="23">
+        <f>AVERAGE(C31,F31,I31)</f>
+        <v>345.28766666666667</v>
+      </c>
+      <c r="M31" s="24">
+        <f>AVERAGE(D31,G31,J31)</f>
+        <v>289627.89430933335</v>
+      </c>
+      <c r="N31" s="25">
+        <f>L$31/L31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15">
+        <v>290.68</v>
+      </c>
+      <c r="D32" s="26">
+        <v>344746.74903800001</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ref="E32:E40" si="2">C$31/C32</f>
+        <v>1.1996284574102105</v>
+      </c>
+      <c r="F32" s="15">
+        <v>287.39299999999997</v>
+      </c>
+      <c r="G32" s="16">
+        <v>347955.58694900002</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" ref="H32:H40" si="3">F$31/F32</f>
+        <v>1.1966053452937269</v>
+      </c>
+      <c r="I32" s="15">
+        <v>287.51</v>
+      </c>
+      <c r="J32" s="16">
+        <v>348370.15025200002</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" ref="K32:K40" si="4">I$31/I32</f>
+        <v>1.1939028207714515</v>
+      </c>
+      <c r="L32" s="15">
+        <f>AVERAGE(C32,F32,I32)</f>
+        <v>288.52766666666668</v>
+      </c>
+      <c r="M32" s="26">
+        <f>AVERAGE(D32,G32,J32)</f>
+        <v>347024.16207966668</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" ref="N32:N40" si="5">L$31/L32</f>
+        <v>1.1967229023675372</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15">
+        <v>161.976</v>
+      </c>
+      <c r="D33" s="26">
+        <v>617375.41364200006</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="2"/>
+        <v>2.1528374574010964</v>
+      </c>
+      <c r="F33" s="15">
+        <v>161.31200000000001</v>
+      </c>
+      <c r="G33" s="16">
+        <v>619916.68319799996</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="3"/>
+        <v>2.1318686768498312</v>
+      </c>
+      <c r="I33" s="15">
+        <v>161.447</v>
+      </c>
+      <c r="J33" s="16">
+        <v>619398.316475</v>
+      </c>
+      <c r="K33" s="17">
+        <f t="shared" si="4"/>
+        <v>2.1261404671502104</v>
+      </c>
+      <c r="L33" s="15">
+        <f>AVERAGE(C33,F33,I33)</f>
+        <v>161.57833333333335</v>
+      </c>
+      <c r="M33" s="26">
+        <f>AVERAGE(D33,G33,J33)</f>
+        <v>618896.80443833338</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="5"/>
+        <v>2.1369676214839033</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15">
+        <v>93.239000000000004</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1072512.5752099999</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="2"/>
+        <v>3.739937150763093</v>
+      </c>
+      <c r="F34" s="15">
+        <v>92.884</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1076611.6876960001</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="3"/>
+        <v>3.7024245295206928</v>
+      </c>
+      <c r="I34" s="15">
+        <v>93.99</v>
+      </c>
+      <c r="J34" s="16">
+        <v>1074125.3933979999</v>
+      </c>
+      <c r="K34" s="17">
+        <f t="shared" si="4"/>
+        <v>3.6520800085115441</v>
+      </c>
+      <c r="L34" s="15">
+        <f>AVERAGE(C34,F34,I34)</f>
+        <v>93.370999999999995</v>
+      </c>
+      <c r="M34" s="26">
+        <f>AVERAGE(D34,G34,J34)</f>
+        <v>1074416.5521013334</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="5"/>
+        <v>3.6980182997575981</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>16</v>
+      </c>
+      <c r="C35" s="15">
+        <v>64.385000000000005</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1553132.6685929999</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="2"/>
+        <v>5.4159819833812222</v>
+      </c>
+      <c r="F35" s="15">
+        <v>64.361000000000004</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1553735.958111</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="3"/>
+        <v>5.3432358105063624</v>
+      </c>
+      <c r="I35" s="15">
+        <v>64.337999999999994</v>
+      </c>
+      <c r="J35" s="16">
+        <v>1554291.398551</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="4"/>
+        <v>5.3352451117535526</v>
+      </c>
+      <c r="L35" s="15">
+        <f>AVERAGE(C35,F35,I35)</f>
+        <v>64.361333333333334</v>
+      </c>
+      <c r="M35" s="26">
+        <f>AVERAGE(D35,G35,J35)</f>
+        <v>1553720.0084183335</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="5"/>
+        <v>5.364830850821404</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>28</v>
+      </c>
+      <c r="C36" s="15">
+        <v>43.23</v>
+      </c>
+      <c r="D36" s="26">
+        <v>2324338.1447129999</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="2"/>
+        <v>8.0663428174878575</v>
+      </c>
+      <c r="F36" s="15">
+        <v>42.927</v>
+      </c>
+      <c r="G36" s="16">
+        <v>2329536.1893449998</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="3"/>
+        <v>8.0111817737088558</v>
+      </c>
+      <c r="I36" s="15">
+        <v>42.997999999999998</v>
+      </c>
+      <c r="J36" s="16">
+        <v>2325689.5669570002</v>
+      </c>
+      <c r="K36" s="17">
+        <f t="shared" si="4"/>
+        <v>7.983138750639565</v>
+      </c>
+      <c r="L36" s="15">
+        <f>AVERAGE(C36,F36,I36)</f>
+        <v>43.051666666666669</v>
+      </c>
+      <c r="M36" s="26">
+        <f>AVERAGE(D36,G36,J36)</f>
+        <v>2326521.3003383335</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="5"/>
+        <v>8.0203089311292626</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>42</v>
+      </c>
+      <c r="C37" s="15">
+        <v>37.698999999999998</v>
+      </c>
+      <c r="D37" s="26">
+        <v>2652590.2543830001</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="2"/>
+        <v>9.2497944242552865</v>
+      </c>
+      <c r="F37" s="15">
+        <v>37.170999999999999</v>
+      </c>
+      <c r="G37" s="16">
+        <v>2690269.295957</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="3"/>
+        <v>9.2517284980226524</v>
+      </c>
+      <c r="I37" s="15">
+        <v>37.615000000000002</v>
+      </c>
+      <c r="J37" s="16">
+        <v>2658513.8907349999</v>
+      </c>
+      <c r="K37" s="17">
+        <f t="shared" si="4"/>
+        <v>9.1255881961983256</v>
+      </c>
+      <c r="L37" s="15">
+        <f>AVERAGE(C37,F37,I37)</f>
+        <v>37.495000000000005</v>
+      </c>
+      <c r="M37" s="26">
+        <f>AVERAGE(D37,G37,J37)</f>
+        <v>2667124.4803583338</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" si="5"/>
+        <v>9.2088989643063517</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>56</v>
+      </c>
+      <c r="C38" s="15">
+        <v>47.575000000000003</v>
+      </c>
+      <c r="D38" s="26">
+        <v>2101944.2984759999</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="2"/>
+        <v>7.329647924330005</v>
+      </c>
+      <c r="F38" s="15">
+        <v>47.176000000000002</v>
+      </c>
+      <c r="G38" s="16">
+        <v>2119721.892488</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="3"/>
+        <v>7.28963879938952</v>
+      </c>
+      <c r="I38" s="15">
+        <v>40.165999999999997</v>
+      </c>
+      <c r="J38" s="16">
+        <v>2489667.8783049998</v>
+      </c>
+      <c r="K38" s="17">
+        <f t="shared" si="4"/>
+        <v>8.5460090623910787</v>
+      </c>
+      <c r="L38" s="15">
+        <f>AVERAGE(C38,F38,I38)</f>
+        <v>44.972333333333331</v>
+      </c>
+      <c r="M38" s="26">
+        <f>AVERAGE(D38,G38,J38)</f>
+        <v>2237111.3564229999</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="5"/>
+        <v>7.6777796719464559</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>72</v>
+      </c>
+      <c r="C39" s="15">
+        <v>37.847000000000001</v>
+      </c>
+      <c r="D39" s="26">
+        <v>2642217.348799</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="2"/>
+        <v>9.213623272650409</v>
+      </c>
+      <c r="F39" s="15">
+        <v>47.506</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2104997.2635039999</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="3"/>
+        <v>7.2390013892981946</v>
+      </c>
+      <c r="I39" s="15">
+        <v>37.887999999999998</v>
+      </c>
+      <c r="J39" s="16">
+        <v>2639358.1081079999</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" si="4"/>
+        <v>9.0598342483108123</v>
+      </c>
+      <c r="L39" s="15">
+        <f>AVERAGE(C39,F39,I39)</f>
+        <v>41.080333333333336</v>
+      </c>
+      <c r="M39" s="26">
+        <f>AVERAGE(D39,G39,J39)</f>
+        <v>2462190.9068036666</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="5"/>
+        <v>8.4051817171233587</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="19">
+        <v>96</v>
+      </c>
+      <c r="C40" s="20">
+        <v>33.685000000000002</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2968680.4215529999</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="2"/>
+        <v>10.352026124387709</v>
+      </c>
+      <c r="F40" s="20">
+        <v>36.563000000000002</v>
+      </c>
+      <c r="G40" s="21">
+        <v>2735005.3332600002</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="3"/>
+        <v>9.4055739408691839</v>
+      </c>
+      <c r="I40" s="20">
+        <v>36.545000000000002</v>
+      </c>
+      <c r="J40" s="21">
+        <v>2736352.4421950001</v>
+      </c>
+      <c r="K40" s="22">
+        <f t="shared" si="4"/>
+        <v>9.392776029552607</v>
+      </c>
+      <c r="L40" s="20">
+        <f>AVERAGE(C40,F40,I40)</f>
+        <v>35.597666666666669</v>
+      </c>
+      <c r="M40" s="27">
+        <f>AVERAGE(D40,G40,J40)</f>
+        <v>2813346.0656693336</v>
+      </c>
+      <c r="N40" s="22">
+        <f t="shared" si="5"/>
+        <v>9.6997275102300708</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSim-WS23-24\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E82358-0F37-49F2-9F89-20D046A71A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A6306-9F19-406E-A69A-2789EC76629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>1000 Iterations Rayleigh-Taylor 3D</t>
   </si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Speedup</t>
+  </si>
+  <si>
+    <t>Simulations 21.01.2024, branch: 84-parallel-v2</t>
   </si>
 </sst>
 </file>
@@ -303,26 +303,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -342,8 +324,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2103,7 +2109,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3024,7 +3030,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3965,7 +3971,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles)</a:t>
+              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4524,6 +4530,2797 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1E6E-4222-AE6A-FEA1C2E9E4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [Time(1 Thread)/Time(n Threads)]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$68:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>525.29100000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>397.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.287000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.829000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.905000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3453-4886-8F67-CE564A62DE4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$68:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>597.298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>447.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.86600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.302999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.709000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.522000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.373000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.623000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3453-4886-8F67-CE564A62DE4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$68:$I$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>627.33799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449.56099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.686000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.301000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3453-4886-8F67-CE564A62DE4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$68:$L$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>583.30899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>431.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.99866666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.64200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.425333333333342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.300333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.393333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.742333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.44233333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.732500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3453-4886-8F67-CE564A62DE4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$68:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>190370.30832400001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251791.49649799999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>486641.685727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>721016.92226699996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1508591.4281840001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2135428.900895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1802971.296697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2132514.4477849999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2415283.9166239998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2638104.7855219999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A62-40D0-B806-945953835729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$68:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>167420.337218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223483.663344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>418644.76317300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677396.62927399995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1132464.3556840001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1476908.5350540001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1306796.649373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1529660.109524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500960.614793</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1448037.1855949999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A62-40D0-B806-945953835729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$68:$J$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>159403.70262900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222439.22404299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>417292.60557499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650999.28390100005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1045084.965408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1441690.8149880001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1262721.923378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1563452.7290070001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1485862.0228530001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A62-40D0-B806-945953835729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$68:$M$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>172398.11605700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232571.46129500002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440859.68482499995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>683137.61181400006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228713.5830920001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1684676.0836456667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1457496.6231493335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1741875.7621053334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800702.1847566667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2043070.9855585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A62-40D0-B806-945953835729}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Million Molecule Updates</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$68:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3226380698671045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5562849773711616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7874643094050127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9244949990194158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.217215827799015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.470845954132411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.201906467916322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.687269038475474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.858092599920855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD40-4D02-9F67-9A4162722BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$68:$H$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3348634514816968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5005567975350194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0460765187232433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7641869472158369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8215451417093735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8055722537309524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1367690024933843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9653422992059788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.586802760207016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD40-4D02-9F67-9A4162722BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$68:$K$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3954457793269435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6178350859622768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0839658876375227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5562151202892789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.044274324928276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.921534459681288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8081330810962921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3213770969227792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD40-4D02-9F67-9A4162722BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$68:$N$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3521563930689435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5583877683495224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9777758077494845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9919888443158742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5155926286425849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2864239037787666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9299596543094975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.980932771335846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.855794909970687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD40-4D02-9F67-9A4162722BD4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5061,6 +7858,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7126,6 +10043,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7795,15 +12260,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>15762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>268677</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1977</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>186762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7831,448 +12296,121 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>575159</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>143785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03979263-DF3C-427E-BF3D-4D2A1345FA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604807</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>164085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391791</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>144585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F327E6E5-B2A2-4A36-BF80-88301E2660ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>551330</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>143188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8701</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B787C0-C093-4F63-9265-E7EDF144A0E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Run 1</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>Run 2</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v>Run 3</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>Avg</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1</v>
-          </cell>
-          <cell r="C34">
-            <v>3.7440000000000002</v>
-          </cell>
-          <cell r="D34">
-            <v>2670940.1709400001</v>
-          </cell>
-          <cell r="E34">
-            <v>1</v>
-          </cell>
-          <cell r="F34">
-            <v>3.7010000000000001</v>
-          </cell>
-          <cell r="G34">
-            <v>2701972.4398810002</v>
-          </cell>
-          <cell r="H34">
-            <v>1</v>
-          </cell>
-          <cell r="I34">
-            <v>3.6989999999999998</v>
-          </cell>
-          <cell r="J34">
-            <v>2703433.3603679999</v>
-          </cell>
-          <cell r="K34">
-            <v>1</v>
-          </cell>
-          <cell r="L34">
-            <v>3.7146666666666666</v>
-          </cell>
-          <cell r="M34">
-            <v>2692115.3237296664</v>
-          </cell>
-          <cell r="N34">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>2</v>
-          </cell>
-          <cell r="C35">
-            <v>2.9689999999999999</v>
-          </cell>
-          <cell r="D35">
-            <v>3368137.4200070002</v>
-          </cell>
-          <cell r="E35">
-            <v>1.2610306500505222</v>
-          </cell>
-          <cell r="F35">
-            <v>2.97</v>
-          </cell>
-          <cell r="G35">
-            <v>3367003.3670029999</v>
-          </cell>
-          <cell r="H35">
-            <v>1.246127946127946</v>
-          </cell>
-          <cell r="I35">
-            <v>2.9630000000000001</v>
-          </cell>
-          <cell r="J35">
-            <v>3374957.8130270001</v>
-          </cell>
-          <cell r="K35">
-            <v>1.248396895038812</v>
-          </cell>
-          <cell r="L35">
-            <v>2.9673333333333338</v>
-          </cell>
-          <cell r="M35">
-            <v>3370032.8666790002</v>
-          </cell>
-          <cell r="N35">
-            <v>1.25185183040576</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>4</v>
-          </cell>
-          <cell r="C36">
-            <v>2.1070000000000002</v>
-          </cell>
-          <cell r="D36">
-            <v>4746084.480304</v>
-          </cell>
-          <cell r="E36">
-            <v>1.7769340294257236</v>
-          </cell>
-          <cell r="F36">
-            <v>2.1150000000000002</v>
-          </cell>
-          <cell r="G36">
-            <v>4728132.3877069997</v>
-          </cell>
-          <cell r="H36">
-            <v>1.7498817966903071</v>
-          </cell>
-          <cell r="I36">
-            <v>2.1240000000000001</v>
-          </cell>
-          <cell r="J36">
-            <v>4708097.9284370001</v>
-          </cell>
-          <cell r="K36">
-            <v>1.7415254237288134</v>
-          </cell>
-          <cell r="L36">
-            <v>2.1153333333333335</v>
-          </cell>
-          <cell r="M36">
-            <v>4727438.2654826669</v>
-          </cell>
-          <cell r="N36">
-            <v>1.7561137499482813</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>8</v>
-          </cell>
-          <cell r="C37">
-            <v>1.6970000000000001</v>
-          </cell>
-          <cell r="D37">
-            <v>5892751.9151440002</v>
-          </cell>
-          <cell r="E37">
-            <v>2.206246317030053</v>
-          </cell>
-          <cell r="F37">
-            <v>1.6819999999999999</v>
-          </cell>
-          <cell r="G37">
-            <v>5945303.2104639998</v>
-          </cell>
-          <cell r="H37">
-            <v>2.2003567181926278</v>
-          </cell>
-          <cell r="I37">
-            <v>1.6639999999999999</v>
-          </cell>
-          <cell r="J37">
-            <v>6009615.3846150003</v>
-          </cell>
-          <cell r="K37">
-            <v>2.2229567307692308</v>
-          </cell>
-          <cell r="L37">
-            <v>1.681</v>
-          </cell>
-          <cell r="M37">
-            <v>5949223.5034076674</v>
-          </cell>
-          <cell r="N37">
-            <v>2.2098532553306369</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>16</v>
-          </cell>
-          <cell r="C38">
-            <v>1.419</v>
-          </cell>
-          <cell r="D38">
-            <v>7047216.3495420003</v>
-          </cell>
-          <cell r="E38">
-            <v>2.6384778012684991</v>
-          </cell>
-          <cell r="F38">
-            <v>1.4470000000000001</v>
-          </cell>
-          <cell r="G38">
-            <v>6910850.034554</v>
-          </cell>
-          <cell r="H38">
-            <v>2.5577055977885279</v>
-          </cell>
-          <cell r="I38">
-            <v>1.42</v>
-          </cell>
-          <cell r="J38">
-            <v>7042253.5211270005</v>
-          </cell>
-          <cell r="K38">
-            <v>2.6049295774647887</v>
-          </cell>
-          <cell r="L38">
-            <v>1.4286666666666665</v>
-          </cell>
-          <cell r="M38">
-            <v>7000106.6350743333</v>
-          </cell>
-          <cell r="N38">
-            <v>2.6003709921739389</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>28</v>
-          </cell>
-          <cell r="C39">
-            <v>1.359</v>
-          </cell>
-          <cell r="D39">
-            <v>7358351.7292130003</v>
-          </cell>
-          <cell r="E39">
-            <v>2.7549668874172188</v>
-          </cell>
-          <cell r="F39">
-            <v>1.331</v>
-          </cell>
-          <cell r="G39">
-            <v>7513148.0090159997</v>
-          </cell>
-          <cell r="H39">
-            <v>2.7806160781367395</v>
-          </cell>
-          <cell r="I39">
-            <v>1.3160000000000001</v>
-          </cell>
-          <cell r="J39">
-            <v>7598784.1945289997</v>
-          </cell>
-          <cell r="K39">
-            <v>2.8107902735562309</v>
-          </cell>
-          <cell r="L39">
-            <v>1.3353333333333335</v>
-          </cell>
-          <cell r="M39">
-            <v>7490094.6442526663</v>
-          </cell>
-          <cell r="N39">
-            <v>2.7821244130367297</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>42</v>
-          </cell>
-          <cell r="C40">
-            <v>1.3240000000000001</v>
-          </cell>
-          <cell r="D40">
-            <v>7552870.0906339996</v>
-          </cell>
-          <cell r="E40">
-            <v>2.8277945619335347</v>
-          </cell>
-          <cell r="F40">
-            <v>1.29</v>
-          </cell>
-          <cell r="G40">
-            <v>7751937.9844960002</v>
-          </cell>
-          <cell r="H40">
-            <v>2.8689922480620154</v>
-          </cell>
-          <cell r="I40">
-            <v>1.304</v>
-          </cell>
-          <cell r="J40">
-            <v>7668711.6564419996</v>
-          </cell>
-          <cell r="K40">
-            <v>2.8366564417177913</v>
-          </cell>
-          <cell r="L40">
-            <v>1.306</v>
-          </cell>
-          <cell r="M40">
-            <v>7657839.9105240004</v>
-          </cell>
-          <cell r="N40">
-            <v>2.8444810839044474</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>56</v>
-          </cell>
-          <cell r="C41">
-            <v>1.915</v>
-          </cell>
-          <cell r="D41">
-            <v>5221932.114883</v>
-          </cell>
-          <cell r="E41">
-            <v>1.9550913838120105</v>
-          </cell>
-          <cell r="F41">
-            <v>1.8360000000000001</v>
-          </cell>
-          <cell r="G41">
-            <v>5446623.0936820004</v>
-          </cell>
-          <cell r="H41">
-            <v>2.0157952069716774</v>
-          </cell>
-          <cell r="I41">
-            <v>4.4160000000000004</v>
-          </cell>
-          <cell r="J41">
-            <v>2264492.7536229999</v>
-          </cell>
-          <cell r="K41">
-            <v>0.83763586956521729</v>
-          </cell>
-          <cell r="L41">
-            <v>2.7223333333333337</v>
-          </cell>
-          <cell r="M41">
-            <v>4311015.987396</v>
-          </cell>
-          <cell r="N41">
-            <v>1.6028408201163018</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>72</v>
-          </cell>
-          <cell r="C42">
-            <v>5.335</v>
-          </cell>
-          <cell r="D42">
-            <v>1874414.2455480001</v>
-          </cell>
-          <cell r="E42">
-            <v>0.70178069353327088</v>
-          </cell>
-          <cell r="F42">
-            <v>1.9930000000000001</v>
-          </cell>
-          <cell r="G42">
-            <v>5017561.4651279999</v>
-          </cell>
-          <cell r="H42">
-            <v>1.8569994982438534</v>
-          </cell>
-          <cell r="I42">
-            <v>8.6</v>
-          </cell>
-          <cell r="J42">
-            <v>1162790.6976739999</v>
-          </cell>
-          <cell r="K42">
-            <v>0.43011627906976746</v>
-          </cell>
-          <cell r="L42">
-            <v>5.3093333333333339</v>
-          </cell>
-          <cell r="M42">
-            <v>2684922.1361166663</v>
-          </cell>
-          <cell r="N42">
-            <v>0.9962988236156306</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>96</v>
-          </cell>
-          <cell r="C43">
-            <v>35.875999999999998</v>
-          </cell>
-          <cell r="D43">
-            <v>278737.87490200001</v>
-          </cell>
-          <cell r="E43">
-            <v>0.1043594603634742</v>
-          </cell>
-          <cell r="F43">
-            <v>10.127000000000001</v>
-          </cell>
-          <cell r="G43">
-            <v>987459.26730499999</v>
-          </cell>
-          <cell r="H43">
-            <v>0.36545867482966327</v>
-          </cell>
-          <cell r="I43">
-            <v>10.798</v>
-          </cell>
-          <cell r="J43">
-            <v>926097.42544899997</v>
-          </cell>
-          <cell r="K43">
-            <v>0.34256343767364328</v>
-          </cell>
-          <cell r="L43">
-            <v>18.933666666666667</v>
-          </cell>
-          <cell r="M43">
-            <v>730764.85588533338</v>
-          </cell>
-          <cell r="N43">
-            <v>0.27079385762226021</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8538,10 +12676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N40"/>
+  <dimension ref="B2:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,558 +12901,1108 @@
     </row>
     <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="4" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="4" t="s">
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="17">
         <v>348.70800000000003</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="18">
         <v>286772.88734399999</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="19">
         <f>C$31/C31</f>
         <v>1</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="9">
         <v>343.89600000000002</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="10">
         <v>290785.58633999998</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="19">
         <f>F$31/F31</f>
         <v>1</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="9">
         <v>343.25900000000001</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="10">
         <v>291325.20924400003</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="19">
         <f>I$31/I31</f>
         <v>1</v>
       </c>
-      <c r="L31" s="23">
-        <f>AVERAGE(C31,F31,I31)</f>
+      <c r="L31" s="17">
+        <f t="shared" ref="L31:L40" si="2">AVERAGE(C31,F31,I31)</f>
         <v>345.28766666666667</v>
       </c>
-      <c r="M31" s="24">
-        <f>AVERAGE(D31,G31,J31)</f>
+      <c r="M31" s="18">
+        <f t="shared" ref="M31:M40" si="3">AVERAGE(D31,G31,J31)</f>
         <v>289627.89430933335</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="19">
         <f>L$31/L31</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+      <c r="B32" s="12">
         <v>2</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="9">
         <v>290.68</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="10">
         <v>344746.74903800001</v>
       </c>
-      <c r="E32" s="17">
-        <f t="shared" ref="E32:E40" si="2">C$31/C32</f>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32:E40" si="4">C$31/C32</f>
         <v>1.1996284574102105</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="9">
         <v>287.39299999999997</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="10">
         <v>347955.58694900002</v>
       </c>
-      <c r="H32" s="17">
-        <f t="shared" ref="H32:H40" si="3">F$31/F32</f>
+      <c r="H32" s="11">
+        <f t="shared" ref="H32:H40" si="5">F$31/F32</f>
         <v>1.1966053452937269</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="9">
         <v>287.51</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="10">
         <v>348370.15025200002</v>
       </c>
-      <c r="K32" s="17">
-        <f t="shared" ref="K32:K40" si="4">I$31/I32</f>
+      <c r="K32" s="11">
+        <f t="shared" ref="K32:K40" si="6">I$31/I32</f>
         <v>1.1939028207714515</v>
       </c>
-      <c r="L32" s="15">
-        <f>AVERAGE(C32,F32,I32)</f>
+      <c r="L32" s="9">
+        <f t="shared" si="2"/>
         <v>288.52766666666668</v>
       </c>
-      <c r="M32" s="26">
-        <f>AVERAGE(D32,G32,J32)</f>
+      <c r="M32" s="10">
+        <f t="shared" si="3"/>
         <v>347024.16207966668</v>
       </c>
-      <c r="N32" s="17">
-        <f t="shared" ref="N32:N40" si="5">L$31/L32</f>
+      <c r="N32" s="11">
+        <f t="shared" ref="N32:N40" si="7">L$31/L32</f>
         <v>1.1967229023675372</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>4</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="9">
         <v>161.976</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="10">
         <v>617375.41364200006</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="11">
+        <f t="shared" si="4"/>
+        <v>2.1528374574010964</v>
+      </c>
+      <c r="F33" s="9">
+        <v>161.31200000000001</v>
+      </c>
+      <c r="G33" s="10">
+        <v>619916.68319799996</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="5"/>
+        <v>2.1318686768498312</v>
+      </c>
+      <c r="I33" s="9">
+        <v>161.447</v>
+      </c>
+      <c r="J33" s="10">
+        <v>619398.316475</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="6"/>
+        <v>2.1261404671502104</v>
+      </c>
+      <c r="L33" s="9">
         <f t="shared" si="2"/>
-        <v>2.1528374574010964</v>
-      </c>
-      <c r="F33" s="15">
-        <v>161.31200000000001</v>
-      </c>
-      <c r="G33" s="16">
-        <v>619916.68319799996</v>
-      </c>
-      <c r="H33" s="17">
+        <v>161.57833333333335</v>
+      </c>
+      <c r="M33" s="10">
         <f t="shared" si="3"/>
-        <v>2.1318686768498312</v>
-      </c>
-      <c r="I33" s="15">
-        <v>161.447</v>
-      </c>
-      <c r="J33" s="16">
-        <v>619398.316475</v>
-      </c>
-      <c r="K33" s="17">
-        <f t="shared" si="4"/>
-        <v>2.1261404671502104</v>
-      </c>
-      <c r="L33" s="15">
-        <f>AVERAGE(C33,F33,I33)</f>
-        <v>161.57833333333335</v>
-      </c>
-      <c r="M33" s="26">
-        <f>AVERAGE(D33,G33,J33)</f>
         <v>618896.80443833338</v>
       </c>
-      <c r="N33" s="17">
-        <f t="shared" si="5"/>
+      <c r="N33" s="11">
+        <f t="shared" si="7"/>
         <v>2.1369676214839033</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>8</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="9">
         <v>93.239000000000004</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="10">
         <v>1072512.5752099999</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="11">
+        <f t="shared" si="4"/>
+        <v>3.739937150763093</v>
+      </c>
+      <c r="F34" s="9">
+        <v>92.884</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1076611.6876960001</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="5"/>
+        <v>3.7024245295206928</v>
+      </c>
+      <c r="I34" s="9">
+        <v>93.99</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1074125.3933979999</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="6"/>
+        <v>3.6520800085115441</v>
+      </c>
+      <c r="L34" s="9">
         <f t="shared" si="2"/>
-        <v>3.739937150763093</v>
-      </c>
-      <c r="F34" s="15">
-        <v>92.884</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1076611.6876960001</v>
-      </c>
-      <c r="H34" s="17">
+        <v>93.370999999999995</v>
+      </c>
+      <c r="M34" s="10">
         <f t="shared" si="3"/>
-        <v>3.7024245295206928</v>
-      </c>
-      <c r="I34" s="15">
-        <v>93.99</v>
-      </c>
-      <c r="J34" s="16">
-        <v>1074125.3933979999</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="4"/>
-        <v>3.6520800085115441</v>
-      </c>
-      <c r="L34" s="15">
-        <f>AVERAGE(C34,F34,I34)</f>
-        <v>93.370999999999995</v>
-      </c>
-      <c r="M34" s="26">
-        <f>AVERAGE(D34,G34,J34)</f>
         <v>1074416.5521013334</v>
       </c>
-      <c r="N34" s="17">
-        <f t="shared" si="5"/>
+      <c r="N34" s="11">
+        <f t="shared" si="7"/>
         <v>3.6980182997575981</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="18">
+      <c r="B35" s="12">
         <v>16</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="9">
         <v>64.385000000000005</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="10">
         <v>1553132.6685929999</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="11">
+        <f t="shared" si="4"/>
+        <v>5.4159819833812222</v>
+      </c>
+      <c r="F35" s="9">
+        <v>64.361000000000004</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1553735.958111</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="5"/>
+        <v>5.3432358105063624</v>
+      </c>
+      <c r="I35" s="9">
+        <v>64.337999999999994</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1554291.398551</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="6"/>
+        <v>5.3352451117535526</v>
+      </c>
+      <c r="L35" s="9">
         <f t="shared" si="2"/>
-        <v>5.4159819833812222</v>
-      </c>
-      <c r="F35" s="15">
-        <v>64.361000000000004</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1553735.958111</v>
-      </c>
-      <c r="H35" s="17">
+        <v>64.361333333333334</v>
+      </c>
+      <c r="M35" s="10">
         <f t="shared" si="3"/>
-        <v>5.3432358105063624</v>
-      </c>
-      <c r="I35" s="15">
-        <v>64.337999999999994</v>
-      </c>
-      <c r="J35" s="16">
-        <v>1554291.398551</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="4"/>
-        <v>5.3352451117535526</v>
-      </c>
-      <c r="L35" s="15">
-        <f>AVERAGE(C35,F35,I35)</f>
-        <v>64.361333333333334</v>
-      </c>
-      <c r="M35" s="26">
-        <f>AVERAGE(D35,G35,J35)</f>
         <v>1553720.0084183335</v>
       </c>
-      <c r="N35" s="17">
-        <f t="shared" si="5"/>
+      <c r="N35" s="11">
+        <f t="shared" si="7"/>
         <v>5.364830850821404</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>28</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="9">
         <v>43.23</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="10">
         <v>2324338.1447129999</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
+        <f t="shared" si="4"/>
+        <v>8.0663428174878575</v>
+      </c>
+      <c r="F36" s="9">
+        <v>42.927</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2329536.1893449998</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="5"/>
+        <v>8.0111817737088558</v>
+      </c>
+      <c r="I36" s="9">
+        <v>42.997999999999998</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2325689.5669570002</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="6"/>
+        <v>7.983138750639565</v>
+      </c>
+      <c r="L36" s="9">
         <f t="shared" si="2"/>
-        <v>8.0663428174878575</v>
-      </c>
-      <c r="F36" s="15">
-        <v>42.927</v>
-      </c>
-      <c r="G36" s="16">
-        <v>2329536.1893449998</v>
-      </c>
-      <c r="H36" s="17">
+        <v>43.051666666666669</v>
+      </c>
+      <c r="M36" s="10">
         <f t="shared" si="3"/>
-        <v>8.0111817737088558</v>
-      </c>
-      <c r="I36" s="15">
-        <v>42.997999999999998</v>
-      </c>
-      <c r="J36" s="16">
-        <v>2325689.5669570002</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="4"/>
-        <v>7.983138750639565</v>
-      </c>
-      <c r="L36" s="15">
-        <f>AVERAGE(C36,F36,I36)</f>
-        <v>43.051666666666669</v>
-      </c>
-      <c r="M36" s="26">
-        <f>AVERAGE(D36,G36,J36)</f>
         <v>2326521.3003383335</v>
       </c>
-      <c r="N36" s="17">
-        <f t="shared" si="5"/>
+      <c r="N36" s="11">
+        <f t="shared" si="7"/>
         <v>8.0203089311292626</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>42</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="9">
         <v>37.698999999999998</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="10">
         <v>2652590.2543830001</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="11">
+        <f t="shared" si="4"/>
+        <v>9.2497944242552865</v>
+      </c>
+      <c r="F37" s="9">
+        <v>37.170999999999999</v>
+      </c>
+      <c r="G37" s="10">
+        <v>2690269.295957</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="5"/>
+        <v>9.2517284980226524</v>
+      </c>
+      <c r="I37" s="9">
+        <v>37.615000000000002</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2658513.8907349999</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="6"/>
+        <v>9.1255881961983256</v>
+      </c>
+      <c r="L37" s="9">
         <f t="shared" si="2"/>
-        <v>9.2497944242552865</v>
-      </c>
-      <c r="F37" s="15">
-        <v>37.170999999999999</v>
-      </c>
-      <c r="G37" s="16">
-        <v>2690269.295957</v>
-      </c>
-      <c r="H37" s="17">
+        <v>37.495000000000005</v>
+      </c>
+      <c r="M37" s="10">
         <f t="shared" si="3"/>
-        <v>9.2517284980226524</v>
-      </c>
-      <c r="I37" s="15">
-        <v>37.615000000000002</v>
-      </c>
-      <c r="J37" s="16">
-        <v>2658513.8907349999</v>
-      </c>
-      <c r="K37" s="17">
-        <f t="shared" si="4"/>
-        <v>9.1255881961983256</v>
-      </c>
-      <c r="L37" s="15">
-        <f>AVERAGE(C37,F37,I37)</f>
-        <v>37.495000000000005</v>
-      </c>
-      <c r="M37" s="26">
-        <f>AVERAGE(D37,G37,J37)</f>
         <v>2667124.4803583338</v>
       </c>
-      <c r="N37" s="17">
-        <f t="shared" si="5"/>
+      <c r="N37" s="11">
+        <f t="shared" si="7"/>
         <v>9.2088989643063517</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>56</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="9">
         <v>47.575000000000003</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="10">
         <v>2101944.2984759999</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="11">
+        <f t="shared" si="4"/>
+        <v>7.329647924330005</v>
+      </c>
+      <c r="F38" s="9">
+        <v>47.176000000000002</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2119721.892488</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="5"/>
+        <v>7.28963879938952</v>
+      </c>
+      <c r="I38" s="9">
+        <v>40.165999999999997</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2489667.8783049998</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="6"/>
+        <v>8.5460090623910787</v>
+      </c>
+      <c r="L38" s="9">
         <f t="shared" si="2"/>
-        <v>7.329647924330005</v>
-      </c>
-      <c r="F38" s="15">
-        <v>47.176000000000002</v>
-      </c>
-      <c r="G38" s="16">
-        <v>2119721.892488</v>
-      </c>
-      <c r="H38" s="17">
+        <v>44.972333333333331</v>
+      </c>
+      <c r="M38" s="10">
         <f t="shared" si="3"/>
-        <v>7.28963879938952</v>
-      </c>
-      <c r="I38" s="15">
-        <v>40.165999999999997</v>
-      </c>
-      <c r="J38" s="16">
-        <v>2489667.8783049998</v>
-      </c>
-      <c r="K38" s="17">
-        <f t="shared" si="4"/>
-        <v>8.5460090623910787</v>
-      </c>
-      <c r="L38" s="15">
-        <f>AVERAGE(C38,F38,I38)</f>
-        <v>44.972333333333331</v>
-      </c>
-      <c r="M38" s="26">
-        <f>AVERAGE(D38,G38,J38)</f>
         <v>2237111.3564229999</v>
       </c>
-      <c r="N38" s="17">
-        <f t="shared" si="5"/>
+      <c r="N38" s="11">
+        <f t="shared" si="7"/>
         <v>7.6777796719464559</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
+      <c r="B39" s="12">
         <v>72</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="9">
         <v>37.847000000000001</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="10">
         <v>2642217.348799</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="11">
+        <f t="shared" si="4"/>
+        <v>9.213623272650409</v>
+      </c>
+      <c r="F39" s="9">
+        <v>47.506</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2104997.2635039999</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="5"/>
+        <v>7.2390013892981946</v>
+      </c>
+      <c r="I39" s="9">
+        <v>37.887999999999998</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2639358.1081079999</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="6"/>
+        <v>9.0598342483108123</v>
+      </c>
+      <c r="L39" s="9">
         <f t="shared" si="2"/>
-        <v>9.213623272650409</v>
-      </c>
-      <c r="F39" s="15">
-        <v>47.506</v>
-      </c>
-      <c r="G39" s="16">
-        <v>2104997.2635039999</v>
-      </c>
-      <c r="H39" s="17">
+        <v>41.080333333333336</v>
+      </c>
+      <c r="M39" s="10">
         <f t="shared" si="3"/>
-        <v>7.2390013892981946</v>
-      </c>
-      <c r="I39" s="15">
-        <v>37.887999999999998</v>
-      </c>
-      <c r="J39" s="16">
-        <v>2639358.1081079999</v>
-      </c>
-      <c r="K39" s="17">
-        <f t="shared" si="4"/>
-        <v>9.0598342483108123</v>
-      </c>
-      <c r="L39" s="15">
-        <f>AVERAGE(C39,F39,I39)</f>
-        <v>41.080333333333336</v>
-      </c>
-      <c r="M39" s="26">
-        <f>AVERAGE(D39,G39,J39)</f>
         <v>2462190.9068036666</v>
       </c>
-      <c r="N39" s="17">
-        <f t="shared" si="5"/>
+      <c r="N39" s="11">
+        <f t="shared" si="7"/>
         <v>8.4051817171233587</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19">
+      <c r="B40" s="13">
         <v>96</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="14">
         <v>33.685000000000002</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="15">
         <v>2968680.4215529999</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="16">
+        <f t="shared" si="4"/>
+        <v>10.352026124387709</v>
+      </c>
+      <c r="F40" s="14">
+        <v>36.563000000000002</v>
+      </c>
+      <c r="G40" s="15">
+        <v>2735005.3332600002</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="5"/>
+        <v>9.4055739408691839</v>
+      </c>
+      <c r="I40" s="14">
+        <v>36.545000000000002</v>
+      </c>
+      <c r="J40" s="15">
+        <v>2736352.4421950001</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="6"/>
+        <v>9.392776029552607</v>
+      </c>
+      <c r="L40" s="14">
         <f t="shared" si="2"/>
-        <v>10.352026124387709</v>
-      </c>
-      <c r="F40" s="20">
-        <v>36.563000000000002</v>
-      </c>
-      <c r="G40" s="21">
-        <v>2735005.3332600002</v>
-      </c>
-      <c r="H40" s="22">
+        <v>35.597666666666669</v>
+      </c>
+      <c r="M40" s="20">
         <f t="shared" si="3"/>
-        <v>9.4055739408691839</v>
-      </c>
-      <c r="I40" s="20">
-        <v>36.545000000000002</v>
-      </c>
-      <c r="J40" s="21">
-        <v>2736352.4421950001</v>
-      </c>
-      <c r="K40" s="22">
-        <f t="shared" si="4"/>
-        <v>9.392776029552607</v>
-      </c>
-      <c r="L40" s="20">
-        <f>AVERAGE(C40,F40,I40)</f>
-        <v>35.597666666666669</v>
-      </c>
-      <c r="M40" s="27">
-        <f>AVERAGE(D40,G40,J40)</f>
         <v>2813346.0656693336</v>
       </c>
-      <c r="N40" s="22">
-        <f t="shared" si="5"/>
+      <c r="N40" s="16">
+        <f t="shared" si="7"/>
         <v>9.6997275102300708</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="23"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="25"/>
+      <c r="N66" s="26"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>1</v>
+      </c>
+      <c r="C68" s="17">
+        <v>525.29100000000005</v>
+      </c>
+      <c r="D68" s="18">
+        <v>190370.30832400001</v>
+      </c>
+      <c r="E68" s="19">
+        <f>C$68/C68</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="17">
+        <v>597.298</v>
+      </c>
+      <c r="G68" s="18">
+        <v>167420.337218</v>
+      </c>
+      <c r="H68" s="19">
+        <f>F$68/F68</f>
+        <v>1</v>
+      </c>
+      <c r="I68" s="17">
+        <v>627.33799999999997</v>
+      </c>
+      <c r="J68" s="18">
+        <v>159403.70262900001</v>
+      </c>
+      <c r="K68" s="19">
+        <f>I$68/I68</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="17">
+        <f t="shared" ref="L68:L77" si="8">AVERAGE(C68,F68,I68)</f>
+        <v>583.30899999999997</v>
+      </c>
+      <c r="M68" s="18">
+        <f t="shared" ref="M68:M77" si="9">AVERAGE(D68,G68,J68)</f>
+        <v>172398.11605700001</v>
+      </c>
+      <c r="N68" s="19">
+        <f>L$68/L68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
+        <v>2</v>
+      </c>
+      <c r="C69" s="9">
+        <v>397.154</v>
+      </c>
+      <c r="D69" s="27">
+        <v>251791.49649799999</v>
+      </c>
+      <c r="E69" s="11">
+        <f>C$68/C69</f>
+        <v>1.3226380698671045</v>
+      </c>
+      <c r="F69" s="9">
+        <v>447.46</v>
+      </c>
+      <c r="G69" s="27">
+        <v>223483.663344</v>
+      </c>
+      <c r="H69" s="11">
+        <f>F$68/F69</f>
+        <v>1.3348634514816968</v>
+      </c>
+      <c r="I69" s="9">
+        <v>449.56099999999998</v>
+      </c>
+      <c r="J69" s="27">
+        <v>222439.22404299999</v>
+      </c>
+      <c r="K69" s="11">
+        <f>I$68/I69</f>
+        <v>1.3954457793269435</v>
+      </c>
+      <c r="L69" s="9">
+        <f t="shared" si="8"/>
+        <v>431.39166666666665</v>
+      </c>
+      <c r="M69" s="27">
+        <f t="shared" si="9"/>
+        <v>232571.46129500002</v>
+      </c>
+      <c r="N69" s="11">
+        <f>L$68/L69</f>
+        <v>1.3521563930689435</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="12">
+        <v>4</v>
+      </c>
+      <c r="C70" s="9">
+        <v>205.49</v>
+      </c>
+      <c r="D70" s="27">
+        <v>486641.685727</v>
+      </c>
+      <c r="E70" s="11">
+        <f>C$68/C70</f>
+        <v>2.5562849773711616</v>
+      </c>
+      <c r="F70" s="9">
+        <v>238.86600000000001</v>
+      </c>
+      <c r="G70" s="27">
+        <v>418644.76317300001</v>
+      </c>
+      <c r="H70" s="11">
+        <f>F$68/F70</f>
+        <v>2.5005567975350194</v>
+      </c>
+      <c r="I70" s="9">
+        <v>239.64</v>
+      </c>
+      <c r="J70" s="27">
+        <v>417292.60557499999</v>
+      </c>
+      <c r="K70" s="11">
+        <f>I$68/I70</f>
+        <v>2.6178350859622768</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="8"/>
+        <v>227.99866666666665</v>
+      </c>
+      <c r="M70" s="27">
+        <f t="shared" si="9"/>
+        <v>440859.68482499995</v>
+      </c>
+      <c r="N70" s="11">
+        <f>L$68/L70</f>
+        <v>2.5583877683495224</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
+        <v>8</v>
+      </c>
+      <c r="C71" s="9">
+        <v>138.69200000000001</v>
+      </c>
+      <c r="D71" s="27">
+        <v>721016.92226699996</v>
+      </c>
+      <c r="E71" s="11">
+        <f>C$68/C71</f>
+        <v>3.7874643094050127</v>
+      </c>
+      <c r="F71" s="9">
+        <v>147.624</v>
+      </c>
+      <c r="G71" s="27">
+        <v>677396.62927399995</v>
+      </c>
+      <c r="H71" s="11">
+        <f>F$68/F71</f>
+        <v>4.0460765187232433</v>
+      </c>
+      <c r="I71" s="9">
+        <v>153.61000000000001</v>
+      </c>
+      <c r="J71" s="27">
+        <v>650999.28390100005</v>
+      </c>
+      <c r="K71" s="11">
+        <f>I$68/I71</f>
+        <v>4.0839658876375227</v>
+      </c>
+      <c r="L71" s="9">
+        <f t="shared" si="8"/>
+        <v>146.64200000000002</v>
+      </c>
+      <c r="M71" s="27">
+        <f t="shared" si="9"/>
+        <v>683137.61181400006</v>
+      </c>
+      <c r="N71" s="11">
+        <f>L$68/L71</f>
+        <v>3.9777758077494845</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="12">
+        <v>16</v>
+      </c>
+      <c r="C72" s="9">
+        <v>66.287000000000006</v>
+      </c>
+      <c r="D72" s="27">
+        <v>1508591.4281840001</v>
+      </c>
+      <c r="E72" s="11">
+        <f>C$68/C72</f>
+        <v>7.9244949990194158</v>
+      </c>
+      <c r="F72" s="9">
+        <v>88.302999999999997</v>
+      </c>
+      <c r="G72" s="27">
+        <v>1132464.3556840001</v>
+      </c>
+      <c r="H72" s="11">
+        <f>F$68/F72</f>
+        <v>6.7641869472158369</v>
+      </c>
+      <c r="I72" s="9">
+        <v>95.686000000000007</v>
+      </c>
+      <c r="J72" s="27">
+        <v>1045084.965408</v>
+      </c>
+      <c r="K72" s="11">
+        <f>I$68/I72</f>
+        <v>6.5562151202892789</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="8"/>
+        <v>83.425333333333342</v>
+      </c>
+      <c r="M72" s="27">
+        <f t="shared" si="9"/>
+        <v>1228713.5830920001</v>
+      </c>
+      <c r="N72" s="11">
+        <f>L$68/L72</f>
+        <v>6.9919888443158742</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
+        <v>28</v>
+      </c>
+      <c r="C73" s="9">
+        <v>46.829000000000001</v>
+      </c>
+      <c r="D73" s="27">
+        <v>2135428.900895</v>
+      </c>
+      <c r="E73" s="11">
+        <f>C$68/C73</f>
+        <v>11.217215827799015</v>
+      </c>
+      <c r="F73" s="9">
+        <v>67.709000000000003</v>
+      </c>
+      <c r="G73" s="27">
+        <v>1476908.5350540001</v>
+      </c>
+      <c r="H73" s="11">
+        <f>F$68/F73</f>
+        <v>8.8215451417093735</v>
+      </c>
+      <c r="I73" s="9">
+        <v>69.363</v>
+      </c>
+      <c r="J73" s="27">
+        <v>1441690.8149880001</v>
+      </c>
+      <c r="K73" s="11">
+        <f>I$68/I73</f>
+        <v>9.044274324928276</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="8"/>
+        <v>61.300333333333334</v>
+      </c>
+      <c r="M73" s="27">
+        <f t="shared" si="9"/>
+        <v>1684676.0836456667</v>
+      </c>
+      <c r="N73" s="11">
+        <f>L$68/L73</f>
+        <v>9.5155926286425849</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="12">
+        <v>42</v>
+      </c>
+      <c r="C74" s="9">
+        <v>55.463999999999999</v>
+      </c>
+      <c r="D74" s="27">
+        <v>1802971.296697</v>
+      </c>
+      <c r="E74" s="11">
+        <f>C$68/C74</f>
+        <v>9.470845954132411</v>
+      </c>
+      <c r="F74" s="9">
+        <v>76.522000000000006</v>
+      </c>
+      <c r="G74" s="27">
+        <v>1306796.649373</v>
+      </c>
+      <c r="H74" s="11">
+        <f>F$68/F74</f>
+        <v>7.8055722537309524</v>
+      </c>
+      <c r="I74" s="9">
+        <v>79.194000000000003</v>
+      </c>
+      <c r="J74" s="27">
+        <v>1262721.923378</v>
+      </c>
+      <c r="K74" s="11">
+        <f>I$68/I74</f>
+        <v>7.921534459681288</v>
+      </c>
+      <c r="L74" s="9">
+        <f t="shared" si="8"/>
+        <v>70.393333333333331</v>
+      </c>
+      <c r="M74" s="27">
+        <f t="shared" si="9"/>
+        <v>1457496.6231493335</v>
+      </c>
+      <c r="N74" s="11">
+        <f>L$68/L74</f>
+        <v>8.2864239037787666</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
+        <v>56</v>
+      </c>
+      <c r="C75" s="9">
+        <v>46.893000000000001</v>
+      </c>
+      <c r="D75" s="27">
+        <v>2132514.4477849999</v>
+      </c>
+      <c r="E75" s="11">
+        <f>C$68/C75</f>
+        <v>11.201906467916322</v>
+      </c>
+      <c r="F75" s="9">
+        <v>65.373000000000005</v>
+      </c>
+      <c r="G75" s="27">
+        <v>1529660.109524</v>
+      </c>
+      <c r="H75" s="11">
+        <f>F$68/F75</f>
+        <v>9.1367690024933843</v>
+      </c>
+      <c r="I75" s="9">
+        <v>63.960999999999999</v>
+      </c>
+      <c r="J75" s="27">
+        <v>1563452.7290070001</v>
+      </c>
+      <c r="K75" s="11">
+        <f>I$68/I75</f>
+        <v>9.8081330810962921</v>
+      </c>
+      <c r="L75" s="9">
+        <f t="shared" si="8"/>
+        <v>58.742333333333335</v>
+      </c>
+      <c r="M75" s="27">
+        <f t="shared" si="9"/>
+        <v>1741875.7621053334</v>
+      </c>
+      <c r="N75" s="11">
+        <f>L$68/L75</f>
+        <v>9.9299596543094975</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="12">
+        <v>72</v>
+      </c>
+      <c r="C76" s="9">
+        <v>41.402999999999999</v>
+      </c>
+      <c r="D76" s="27">
+        <v>2415283.9166239998</v>
+      </c>
+      <c r="E76" s="11">
+        <f>C$68/C76</f>
+        <v>12.687269038475474</v>
+      </c>
+      <c r="F76" s="9">
+        <v>66.623000000000005</v>
+      </c>
+      <c r="G76" s="27">
+        <v>1500960.614793</v>
+      </c>
+      <c r="H76" s="11">
+        <f>F$68/F76</f>
+        <v>8.9653422992059788</v>
+      </c>
+      <c r="I76" s="9">
+        <v>67.301000000000002</v>
+      </c>
+      <c r="J76" s="27">
+        <v>1485862.0228530001</v>
+      </c>
+      <c r="K76" s="11">
+        <f>I$68/I76</f>
+        <v>9.3213770969227792</v>
+      </c>
+      <c r="L76" s="9">
+        <f t="shared" si="8"/>
+        <v>58.44233333333333</v>
+      </c>
+      <c r="M76" s="27">
+        <f t="shared" si="9"/>
+        <v>1800702.1847566667</v>
+      </c>
+      <c r="N76" s="11">
+        <f>L$68/L76</f>
+        <v>9.980932771335846</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="13">
+        <v>96</v>
+      </c>
+      <c r="C77" s="14">
+        <v>37.905000000000001</v>
+      </c>
+      <c r="D77" s="15">
+        <v>2638104.7855219999</v>
+      </c>
+      <c r="E77" s="16">
+        <f>C$68/C77</f>
+        <v>13.858092599920855</v>
+      </c>
+      <c r="F77" s="14">
+        <v>69.56</v>
+      </c>
+      <c r="G77" s="15">
+        <v>1448037.1855949999</v>
+      </c>
+      <c r="H77" s="16">
+        <f>F$68/F77</f>
+        <v>8.586802760207016</v>
+      </c>
+      <c r="I77" s="14"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="14">
+        <f t="shared" si="8"/>
+        <v>53.732500000000002</v>
+      </c>
+      <c r="M77" s="20">
+        <f t="shared" si="9"/>
+        <v>2043070.9855585</v>
+      </c>
+      <c r="N77" s="16">
+        <f>L$68/L77</f>
+        <v>10.855794909970687</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:N66"/>
     <mergeCell ref="B27:N27"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:H29"/>

--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSim-WS23-24\sheet05\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSimPresentation\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A6306-9F19-406E-A69A-2789EC76629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9B3C6-8612-406C-833A-47841A5204A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -325,6 +325,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,13 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -12678,7 +12677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
@@ -12901,44 +12900,44 @@
     </row>
     <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="24" t="s">
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="24" t="s">
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="32"/>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -13453,83 +13452,83 @@
     </row>
     <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="23"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="29"/>
     </row>
     <row r="65" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="24" t="s">
+      <c r="D66" s="31"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="24" t="s">
+      <c r="G66" s="31"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="24" t="s">
+      <c r="J66" s="31"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="32"/>
     </row>
     <row r="67" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="31" t="s">
+      <c r="D67" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="33" t="s">
+      <c r="G67" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K67" s="28" t="s">
+      <c r="K67" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L67" s="33" t="s">
+      <c r="L67" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M67" s="33" t="s">
+      <c r="M67" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="29" t="s">
+      <c r="N67" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13544,7 +13543,7 @@
         <v>190370.30832400001</v>
       </c>
       <c r="E68" s="19">
-        <f>C$68/C68</f>
+        <f t="shared" ref="E68:E77" si="8">C$68/C68</f>
         <v>1</v>
       </c>
       <c r="F68" s="17">
@@ -13554,7 +13553,7 @@
         <v>167420.337218</v>
       </c>
       <c r="H68" s="19">
-        <f>F$68/F68</f>
+        <f t="shared" ref="H68:H77" si="9">F$68/F68</f>
         <v>1</v>
       </c>
       <c r="I68" s="17">
@@ -13564,19 +13563,19 @@
         <v>159403.70262900001</v>
       </c>
       <c r="K68" s="19">
-        <f>I$68/I68</f>
+        <f t="shared" ref="K68:K76" si="10">I$68/I68</f>
         <v>1</v>
       </c>
       <c r="L68" s="17">
-        <f t="shared" ref="L68:L77" si="8">AVERAGE(C68,F68,I68)</f>
+        <f t="shared" ref="L68:L77" si="11">AVERAGE(C68,F68,I68)</f>
         <v>583.30899999999997</v>
       </c>
       <c r="M68" s="18">
-        <f t="shared" ref="M68:M77" si="9">AVERAGE(D68,G68,J68)</f>
+        <f t="shared" ref="M68:M77" si="12">AVERAGE(D68,G68,J68)</f>
         <v>172398.11605700001</v>
       </c>
       <c r="N68" s="19">
-        <f>L$68/L68</f>
+        <f t="shared" ref="N68:N77" si="13">L$68/L68</f>
         <v>1</v>
       </c>
     </row>
@@ -13587,43 +13586,43 @@
       <c r="C69" s="9">
         <v>397.154</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="10">
         <v>251791.49649799999</v>
       </c>
       <c r="E69" s="11">
-        <f>C$68/C69</f>
+        <f t="shared" si="8"/>
         <v>1.3226380698671045</v>
       </c>
       <c r="F69" s="9">
         <v>447.46</v>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="10">
         <v>223483.663344</v>
       </c>
       <c r="H69" s="11">
-        <f>F$68/F69</f>
+        <f t="shared" si="9"/>
         <v>1.3348634514816968</v>
       </c>
       <c r="I69" s="9">
         <v>449.56099999999998</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J69" s="10">
         <v>222439.22404299999</v>
       </c>
       <c r="K69" s="11">
-        <f>I$68/I69</f>
+        <f t="shared" si="10"/>
         <v>1.3954457793269435</v>
       </c>
       <c r="L69" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>431.39166666666665</v>
       </c>
-      <c r="M69" s="27">
-        <f t="shared" si="9"/>
+      <c r="M69" s="10">
+        <f t="shared" si="12"/>
         <v>232571.46129500002</v>
       </c>
       <c r="N69" s="11">
-        <f>L$68/L69</f>
+        <f t="shared" si="13"/>
         <v>1.3521563930689435</v>
       </c>
     </row>
@@ -13634,43 +13633,43 @@
       <c r="C70" s="9">
         <v>205.49</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="10">
         <v>486641.685727</v>
       </c>
       <c r="E70" s="11">
-        <f>C$68/C70</f>
+        <f t="shared" si="8"/>
         <v>2.5562849773711616</v>
       </c>
       <c r="F70" s="9">
         <v>238.86600000000001</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="10">
         <v>418644.76317300001</v>
       </c>
       <c r="H70" s="11">
-        <f>F$68/F70</f>
+        <f t="shared" si="9"/>
         <v>2.5005567975350194</v>
       </c>
       <c r="I70" s="9">
         <v>239.64</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="10">
         <v>417292.60557499999</v>
       </c>
       <c r="K70" s="11">
-        <f>I$68/I70</f>
+        <f t="shared" si="10"/>
         <v>2.6178350859622768</v>
       </c>
       <c r="L70" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>227.99866666666665</v>
       </c>
-      <c r="M70" s="27">
-        <f t="shared" si="9"/>
+      <c r="M70" s="10">
+        <f t="shared" si="12"/>
         <v>440859.68482499995</v>
       </c>
       <c r="N70" s="11">
-        <f>L$68/L70</f>
+        <f t="shared" si="13"/>
         <v>2.5583877683495224</v>
       </c>
     </row>
@@ -13681,43 +13680,43 @@
       <c r="C71" s="9">
         <v>138.69200000000001</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="10">
         <v>721016.92226699996</v>
       </c>
       <c r="E71" s="11">
-        <f>C$68/C71</f>
+        <f t="shared" si="8"/>
         <v>3.7874643094050127</v>
       </c>
       <c r="F71" s="9">
         <v>147.624</v>
       </c>
-      <c r="G71" s="27">
+      <c r="G71" s="10">
         <v>677396.62927399995</v>
       </c>
       <c r="H71" s="11">
-        <f>F$68/F71</f>
+        <f t="shared" si="9"/>
         <v>4.0460765187232433</v>
       </c>
       <c r="I71" s="9">
         <v>153.61000000000001</v>
       </c>
-      <c r="J71" s="27">
+      <c r="J71" s="10">
         <v>650999.28390100005</v>
       </c>
       <c r="K71" s="11">
-        <f>I$68/I71</f>
+        <f t="shared" si="10"/>
         <v>4.0839658876375227</v>
       </c>
       <c r="L71" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>146.64200000000002</v>
       </c>
-      <c r="M71" s="27">
-        <f t="shared" si="9"/>
+      <c r="M71" s="10">
+        <f t="shared" si="12"/>
         <v>683137.61181400006</v>
       </c>
       <c r="N71" s="11">
-        <f>L$68/L71</f>
+        <f t="shared" si="13"/>
         <v>3.9777758077494845</v>
       </c>
     </row>
@@ -13728,43 +13727,43 @@
       <c r="C72" s="9">
         <v>66.287000000000006</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="10">
         <v>1508591.4281840001</v>
       </c>
       <c r="E72" s="11">
-        <f>C$68/C72</f>
+        <f t="shared" si="8"/>
         <v>7.9244949990194158</v>
       </c>
       <c r="F72" s="9">
         <v>88.302999999999997</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G72" s="10">
         <v>1132464.3556840001</v>
       </c>
       <c r="H72" s="11">
-        <f>F$68/F72</f>
+        <f t="shared" si="9"/>
         <v>6.7641869472158369</v>
       </c>
       <c r="I72" s="9">
         <v>95.686000000000007</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="10">
         <v>1045084.965408</v>
       </c>
       <c r="K72" s="11">
-        <f>I$68/I72</f>
+        <f t="shared" si="10"/>
         <v>6.5562151202892789</v>
       </c>
       <c r="L72" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>83.425333333333342</v>
       </c>
-      <c r="M72" s="27">
-        <f t="shared" si="9"/>
+      <c r="M72" s="10">
+        <f t="shared" si="12"/>
         <v>1228713.5830920001</v>
       </c>
       <c r="N72" s="11">
-        <f>L$68/L72</f>
+        <f t="shared" si="13"/>
         <v>6.9919888443158742</v>
       </c>
     </row>
@@ -13775,43 +13774,43 @@
       <c r="C73" s="9">
         <v>46.829000000000001</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="10">
         <v>2135428.900895</v>
       </c>
       <c r="E73" s="11">
-        <f>C$68/C73</f>
+        <f t="shared" si="8"/>
         <v>11.217215827799015</v>
       </c>
       <c r="F73" s="9">
         <v>67.709000000000003</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G73" s="10">
         <v>1476908.5350540001</v>
       </c>
       <c r="H73" s="11">
-        <f>F$68/F73</f>
+        <f t="shared" si="9"/>
         <v>8.8215451417093735</v>
       </c>
       <c r="I73" s="9">
         <v>69.363</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J73" s="10">
         <v>1441690.8149880001</v>
       </c>
       <c r="K73" s="11">
-        <f>I$68/I73</f>
+        <f t="shared" si="10"/>
         <v>9.044274324928276</v>
       </c>
       <c r="L73" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.300333333333334</v>
       </c>
-      <c r="M73" s="27">
-        <f t="shared" si="9"/>
+      <c r="M73" s="10">
+        <f t="shared" si="12"/>
         <v>1684676.0836456667</v>
       </c>
       <c r="N73" s="11">
-        <f>L$68/L73</f>
+        <f t="shared" si="13"/>
         <v>9.5155926286425849</v>
       </c>
     </row>
@@ -13822,43 +13821,43 @@
       <c r="C74" s="9">
         <v>55.463999999999999</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="10">
         <v>1802971.296697</v>
       </c>
       <c r="E74" s="11">
-        <f>C$68/C74</f>
+        <f t="shared" si="8"/>
         <v>9.470845954132411</v>
       </c>
       <c r="F74" s="9">
         <v>76.522000000000006</v>
       </c>
-      <c r="G74" s="27">
+      <c r="G74" s="10">
         <v>1306796.649373</v>
       </c>
       <c r="H74" s="11">
-        <f>F$68/F74</f>
+        <f t="shared" si="9"/>
         <v>7.8055722537309524</v>
       </c>
       <c r="I74" s="9">
         <v>79.194000000000003</v>
       </c>
-      <c r="J74" s="27">
+      <c r="J74" s="10">
         <v>1262721.923378</v>
       </c>
       <c r="K74" s="11">
-        <f>I$68/I74</f>
+        <f t="shared" si="10"/>
         <v>7.921534459681288</v>
       </c>
       <c r="L74" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>70.393333333333331</v>
       </c>
-      <c r="M74" s="27">
-        <f t="shared" si="9"/>
+      <c r="M74" s="10">
+        <f t="shared" si="12"/>
         <v>1457496.6231493335</v>
       </c>
       <c r="N74" s="11">
-        <f>L$68/L74</f>
+        <f t="shared" si="13"/>
         <v>8.2864239037787666</v>
       </c>
     </row>
@@ -13869,43 +13868,43 @@
       <c r="C75" s="9">
         <v>46.893000000000001</v>
       </c>
-      <c r="D75" s="27">
+      <c r="D75" s="10">
         <v>2132514.4477849999</v>
       </c>
       <c r="E75" s="11">
-        <f>C$68/C75</f>
+        <f t="shared" si="8"/>
         <v>11.201906467916322</v>
       </c>
       <c r="F75" s="9">
         <v>65.373000000000005</v>
       </c>
-      <c r="G75" s="27">
+      <c r="G75" s="10">
         <v>1529660.109524</v>
       </c>
       <c r="H75" s="11">
-        <f>F$68/F75</f>
+        <f t="shared" si="9"/>
         <v>9.1367690024933843</v>
       </c>
       <c r="I75" s="9">
         <v>63.960999999999999</v>
       </c>
-      <c r="J75" s="27">
+      <c r="J75" s="10">
         <v>1563452.7290070001</v>
       </c>
       <c r="K75" s="11">
-        <f>I$68/I75</f>
+        <f t="shared" si="10"/>
         <v>9.8081330810962921</v>
       </c>
       <c r="L75" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.742333333333335</v>
       </c>
-      <c r="M75" s="27">
-        <f t="shared" si="9"/>
+      <c r="M75" s="10">
+        <f t="shared" si="12"/>
         <v>1741875.7621053334</v>
       </c>
       <c r="N75" s="11">
-        <f>L$68/L75</f>
+        <f t="shared" si="13"/>
         <v>9.9299596543094975</v>
       </c>
     </row>
@@ -13916,43 +13915,43 @@
       <c r="C76" s="9">
         <v>41.402999999999999</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="10">
         <v>2415283.9166239998</v>
       </c>
       <c r="E76" s="11">
-        <f>C$68/C76</f>
+        <f t="shared" si="8"/>
         <v>12.687269038475474</v>
       </c>
       <c r="F76" s="9">
         <v>66.623000000000005</v>
       </c>
-      <c r="G76" s="27">
+      <c r="G76" s="10">
         <v>1500960.614793</v>
       </c>
       <c r="H76" s="11">
-        <f>F$68/F76</f>
+        <f t="shared" si="9"/>
         <v>8.9653422992059788</v>
       </c>
       <c r="I76" s="9">
         <v>67.301000000000002</v>
       </c>
-      <c r="J76" s="27">
+      <c r="J76" s="10">
         <v>1485862.0228530001</v>
       </c>
       <c r="K76" s="11">
-        <f>I$68/I76</f>
+        <f t="shared" si="10"/>
         <v>9.3213770969227792</v>
       </c>
       <c r="L76" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.44233333333333</v>
       </c>
-      <c r="M76" s="27">
-        <f t="shared" si="9"/>
+      <c r="M76" s="10">
+        <f t="shared" si="12"/>
         <v>1800702.1847566667</v>
       </c>
       <c r="N76" s="11">
-        <f>L$68/L76</f>
+        <f t="shared" si="13"/>
         <v>9.980932771335846</v>
       </c>
     </row>
@@ -13967,7 +13966,7 @@
         <v>2638104.7855219999</v>
       </c>
       <c r="E77" s="16">
-        <f>C$68/C77</f>
+        <f t="shared" si="8"/>
         <v>13.858092599920855</v>
       </c>
       <c r="F77" s="14">
@@ -13977,37 +13976,37 @@
         <v>1448037.1855949999</v>
       </c>
       <c r="H77" s="16">
-        <f>F$68/F77</f>
+        <f t="shared" si="9"/>
         <v>8.586802760207016</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
       <c r="K77" s="16"/>
       <c r="L77" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>53.732500000000002</v>
       </c>
       <c r="M77" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2043070.9855585</v>
       </c>
       <c r="N77" s="16">
-        <f>L$68/L77</f>
+        <f t="shared" si="13"/>
         <v>10.855794909970687</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="B64:N64"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="F66:H66"/>
     <mergeCell ref="I66:K66"/>
     <mergeCell ref="L66:N66"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSimPresentation\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9B3C6-8612-406C-833A-47841A5204A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB90FE3-0FA7-444B-94CA-916CBA53D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>1000 Iterations Rayleigh-Taylor 3D</t>
   </si>
@@ -80,12 +80,21 @@
   <si>
     <t>Simulations 21.01.2024, branch: 84-parallel-v2</t>
   </si>
+  <si>
+    <t>Simulations 24.01.2024, branch: master</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>mups</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +106,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -349,6 +365,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1288,6 +1309,3756 @@
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1 - Optimized)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$105:$D$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>231577.436021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294705.32414600003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508885.13444699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863051.05810100003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1384792.211929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1786097.02079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3185930.9290169999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>842651.65623199998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2526209.4227610002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>562176.74837000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1358-44EE-80B9-FC2A43DDCEE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$105:$G$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>225351.60484099999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294175.61696000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515575.53697199997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>850853.83181999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293192.6339749999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1698081.1682800001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3202151.846041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1797365.0628180001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1546718.6364130001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1358-44EE-80B9-FC2A43DDCEE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$105:$J$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1358-44EE-80B9-FC2A43DDCEE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$105:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>228464.52043099998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294440.47055299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512230.33570950001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>856952.4449605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1338992.4229520001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1742089.0945350002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3194041.3875289997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1320008.359525</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2036464.0295870001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>562176.74837000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1358-44EE-80B9-FC2A43DDCEE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Million Molecule Updates</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1 - Optimized)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$105:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2725994777821656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1974728764223341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.726867874373204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9798235774722013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7127420161463176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.757518796992482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6387774706754756</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.908702791461412</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4275972565774682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1F9-4967-9F28-A81857B9A826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$105:$H$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3054043002591686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2878664453129027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7756638787022778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7385423132629834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5352351842418068</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.210003842705264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9758074662544711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8636701107467673</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1F9-4967-9F28-A81857B9A826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$105:$K$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1F9-4967-9F28-A81857B9A826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$105:$N$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2890166432341315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2423744961148988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7514396133609829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8550564728067886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.621746548512335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.983183211958606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0230969141008215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3998100482554179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.461128288733978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1F9-4967-9F28-A81857B9A826}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [Time(1 Thread)/Time(n Threads)]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1 - Optimized)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg before</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$68:$L$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>583.30899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>431.39166666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.99866666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.64200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.425333333333342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.300333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.393333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.742333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.44233333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.732500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E49-42C4-ABB3-0BA080C30A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg After</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$105:$L$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>437.78550000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.6275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.770499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.154499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.118499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E49-42C4-ABB3-0BA080C30A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1 - Optimized)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg before</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$68:$N$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3521563930689435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5583877683495224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9777758077494845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9919888443158742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5155926286425849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2864239037787666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9299596543094975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.980932771335846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.855794909970687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E49-42C4-ABB3-0BA080C30A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg After</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$105:$N$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2890166432341315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2423744961148988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7514396133609829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8550564728067886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.621746548512335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.983183211958606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0230969141008215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3998100482554179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.461128288733978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E49-42C4-ABB3-0BA080C30A48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$157</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$158:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$158:$C$173</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>431.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.212999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>64.012</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>73.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>58.651000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>82.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C97-460B-A783-5B5BA7870B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$157</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mups</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$158:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$158:$D$173</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>231577.436021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294705.32414600003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508885.13444699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863051.05810100003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1384792.211929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1786097.02079</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>769822.94072399999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3188368.8305060002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3185930.9290169999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1562207.086171</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1359878.1549170001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1704710.1140449999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1205763.5497679999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1828120.144056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2526209.4227610002</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>562176.74837000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C97-460B-A783-5B5BA7870B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593179167"/>
+        <c:axId val="1876677295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593179167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876677295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1876677295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593179167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7657,7 +11428,1095 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1 - Optimized)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$105:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>431.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.212999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.388000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118.672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EEE-4386-A14F-EC596321A7EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$105:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>443.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.652000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EEE-4386-A14F-EC596321A7EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$105:$I$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0EEE-4386-A14F-EC596321A7EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$105:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$105:$L$114</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>437.78550000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339.6275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.69800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.770499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.154499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.118499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0EEE-4386-A14F-EC596321A7EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7977,6 +12836,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8493,7 +13392,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9009,7 +13908,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9525,7 +14424,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10041,7 +14940,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10557,7 +15456,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11073,7 +15972,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11589,7 +16488,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12409,6 +20404,232 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>499507</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>158831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462345</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>139331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0EEB63-6F9D-4FE6-AFF6-5170FE8D5964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561265</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>142313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>348249</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>122813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B82282C-03B5-44D9-98BF-1F07D11DE02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>507788</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>121416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>577481</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>101916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E9C125-C196-4D64-93ED-A0D45CA79E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>172316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488445</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>152816</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Diagramm 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719F2E15-1F4B-4939-B543-4F2563609EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>843397</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>154998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20854</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>135498</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Diagramm 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DF136E-0311-0A6E-4547-E3512F3CEDD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Diagramm 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F50BD4-92A0-E110-31A0-A262D3FA8A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12675,20 +20896,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N77"/>
+  <dimension ref="B2:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -12970,7 +21191,7 @@
       <c r="K30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="6" t="s">
@@ -13522,13 +21743,13 @@
       <c r="K67" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M67" s="26" t="s">
+      <c r="M67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N67" s="22" t="s">
+      <c r="N67" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13995,18 +22216,715 @@
         <v>10.855794909970687</v>
       </c>
     </row>
+    <row r="100" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="29"/>
+    </row>
+    <row r="102" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="31"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="31"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M103" s="31"/>
+      <c r="N103" s="32"/>
+    </row>
+    <row r="104" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="8">
+        <v>1</v>
+      </c>
+      <c r="C105" s="17">
+        <v>431.82100000000003</v>
+      </c>
+      <c r="D105" s="18">
+        <v>231577.436021</v>
+      </c>
+      <c r="E105" s="19">
+        <f>C$105/C105</f>
+        <v>1</v>
+      </c>
+      <c r="F105" s="17">
+        <v>443.75</v>
+      </c>
+      <c r="G105" s="18">
+        <v>225351.60484099999</v>
+      </c>
+      <c r="H105" s="19">
+        <f t="shared" ref="H105:H114" si="14">F$105/F105</f>
+        <v>1</v>
+      </c>
+      <c r="I105" s="17"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="19" t="e">
+        <f t="shared" ref="K105:K114" si="15">I$105/I105</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" s="17">
+        <f t="shared" ref="L105:L114" si="16">AVERAGE(C105,F105,I105)</f>
+        <v>437.78550000000001</v>
+      </c>
+      <c r="M105" s="18">
+        <f t="shared" ref="M105:M114" si="17">AVERAGE(D105,G105,J105)</f>
+        <v>228464.52043099998</v>
+      </c>
+      <c r="N105" s="19">
+        <f t="shared" ref="N105:N114" si="18">L$105/L105</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
+        <v>2</v>
+      </c>
+      <c r="C106" s="9">
+        <v>339.322</v>
+      </c>
+      <c r="D106" s="10">
+        <v>294705.32414600003</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" ref="E106:E114" si="19">C$105/C106</f>
+        <v>1.2725994777821656</v>
+      </c>
+      <c r="F106" s="9">
+        <v>339.93299999999999</v>
+      </c>
+      <c r="G106" s="10">
+        <v>294175.61696000001</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="14"/>
+        <v>1.3054043002591686</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L106" s="9">
+        <f t="shared" si="16"/>
+        <v>339.6275</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="17"/>
+        <v>294440.47055299999</v>
+      </c>
+      <c r="N106" s="11">
+        <f t="shared" si="18"/>
+        <v>1.2890166432341315</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
+        <v>4</v>
+      </c>
+      <c r="C107" s="9">
+        <v>196.50800000000001</v>
+      </c>
+      <c r="D107" s="10">
+        <v>508885.13444699999</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="19"/>
+        <v>2.1974728764223341</v>
+      </c>
+      <c r="F107" s="9">
+        <v>193.958</v>
+      </c>
+      <c r="G107" s="10">
+        <v>515575.53697199997</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="14"/>
+        <v>2.2878664453129027</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="16"/>
+        <v>195.233</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="17"/>
+        <v>512230.33570950001</v>
+      </c>
+      <c r="N107" s="11">
+        <f t="shared" si="18"/>
+        <v>2.2423744961148988</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
+        <v>8</v>
+      </c>
+      <c r="C108" s="9">
+        <v>115.867</v>
+      </c>
+      <c r="D108" s="10">
+        <v>863051.05810100003</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="19"/>
+        <v>3.726867874373204</v>
+      </c>
+      <c r="F108" s="9">
+        <v>117.529</v>
+      </c>
+      <c r="G108" s="10">
+        <v>850853.83181999996</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="14"/>
+        <v>3.7756638787022778</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="16"/>
+        <v>116.69800000000001</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="17"/>
+        <v>856952.4449605</v>
+      </c>
+      <c r="N108" s="11">
+        <f t="shared" si="18"/>
+        <v>3.7514396133609829</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
+        <v>16</v>
+      </c>
+      <c r="C109" s="9">
+        <v>72.212999999999994</v>
+      </c>
+      <c r="D109" s="10">
+        <v>1384792.211929</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="19"/>
+        <v>5.9798235774722013</v>
+      </c>
+      <c r="F109" s="9">
+        <v>77.328000000000003</v>
+      </c>
+      <c r="G109" s="10">
+        <v>1293192.6339749999</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="14"/>
+        <v>5.7385423132629834</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L109" s="9">
+        <f t="shared" si="16"/>
+        <v>74.770499999999998</v>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="17"/>
+        <v>1338992.4229520001</v>
+      </c>
+      <c r="N109" s="11">
+        <f t="shared" si="18"/>
+        <v>5.8550564728067886</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
+        <v>28</v>
+      </c>
+      <c r="C110" s="9">
+        <v>55.988</v>
+      </c>
+      <c r="D110" s="10">
+        <v>1786097.02079</v>
+      </c>
+      <c r="E110" s="11">
+        <f t="shared" si="19"/>
+        <v>7.7127420161463176</v>
+      </c>
+      <c r="F110" s="9">
+        <v>58.89</v>
+      </c>
+      <c r="G110" s="10">
+        <v>1698081.1682800001</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="14"/>
+        <v>7.5352351842418068</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L110" s="9">
+        <f t="shared" si="16"/>
+        <v>57.439</v>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" si="17"/>
+        <v>1742089.0945350002</v>
+      </c>
+      <c r="N110" s="11">
+        <f t="shared" si="18"/>
+        <v>7.621746548512335</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
+        <v>42</v>
+      </c>
+      <c r="C111" s="9">
+        <v>31.388000000000002</v>
+      </c>
+      <c r="D111" s="10">
+        <v>3185930.9290169999</v>
+      </c>
+      <c r="E111" s="11">
+        <f t="shared" si="19"/>
+        <v>13.757518796992482</v>
+      </c>
+      <c r="F111" s="9">
+        <v>31.228000000000002</v>
+      </c>
+      <c r="G111" s="10">
+        <v>3202151.846041</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="14"/>
+        <v>14.210003842705264</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L111" s="9">
+        <f t="shared" si="16"/>
+        <v>31.308</v>
+      </c>
+      <c r="M111" s="10">
+        <f t="shared" si="17"/>
+        <v>3194041.3875289997</v>
+      </c>
+      <c r="N111" s="11">
+        <f t="shared" si="18"/>
+        <v>13.983183211958606</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="12">
+        <v>56</v>
+      </c>
+      <c r="C112" s="9">
+        <v>118.672</v>
+      </c>
+      <c r="D112" s="10">
+        <v>842651.65623199998</v>
+      </c>
+      <c r="E112" s="11">
+        <f t="shared" si="19"/>
+        <v>3.6387774706754756</v>
+      </c>
+      <c r="F112" s="9">
+        <v>55.637</v>
+      </c>
+      <c r="G112" s="10">
+        <v>1797365.0628180001</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="14"/>
+        <v>7.9758074662544711</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L112" s="9">
+        <f t="shared" si="16"/>
+        <v>87.154499999999999</v>
+      </c>
+      <c r="M112" s="10">
+        <f t="shared" si="17"/>
+        <v>1320008.359525</v>
+      </c>
+      <c r="N112" s="11">
+        <f t="shared" si="18"/>
+        <v>5.0230969141008215</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="12">
+        <v>72</v>
+      </c>
+      <c r="C113" s="9">
+        <v>39.585000000000001</v>
+      </c>
+      <c r="D113" s="10">
+        <v>2526209.4227610002</v>
+      </c>
+      <c r="E113" s="11">
+        <f t="shared" si="19"/>
+        <v>10.908702791461412</v>
+      </c>
+      <c r="F113" s="9">
+        <v>64.652000000000001</v>
+      </c>
+      <c r="G113" s="10">
+        <v>1546718.6364130001</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="14"/>
+        <v>6.8636701107467673</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="11" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L113" s="9">
+        <f t="shared" si="16"/>
+        <v>52.118499999999997</v>
+      </c>
+      <c r="M113" s="10">
+        <f t="shared" si="17"/>
+        <v>2036464.0295870001</v>
+      </c>
+      <c r="N113" s="11">
+        <f t="shared" si="18"/>
+        <v>8.3998100482554179</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="13">
+        <v>96</v>
+      </c>
+      <c r="C114" s="14">
+        <v>177.88</v>
+      </c>
+      <c r="D114" s="15">
+        <v>562176.74837000004</v>
+      </c>
+      <c r="E114" s="16">
+        <f t="shared" si="19"/>
+        <v>2.4275972565774682</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="16" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="16" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L114" s="14">
+        <f t="shared" si="16"/>
+        <v>177.88</v>
+      </c>
+      <c r="M114" s="20">
+        <f t="shared" si="17"/>
+        <v>562176.74837000004</v>
+      </c>
+      <c r="N114" s="16">
+        <f t="shared" si="18"/>
+        <v>2.461128288733978</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="8">
+        <v>1</v>
+      </c>
+      <c r="C158" s="17">
+        <v>431.82100000000003</v>
+      </c>
+      <c r="D158" s="18">
+        <v>231577.436021</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="12">
+        <v>2</v>
+      </c>
+      <c r="C159" s="9">
+        <v>339.322</v>
+      </c>
+      <c r="D159" s="10">
+        <v>294705.32414600003</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="12">
+        <v>4</v>
+      </c>
+      <c r="C160" s="9">
+        <v>196.50800000000001</v>
+      </c>
+      <c r="D160" s="10">
+        <v>508885.13444699999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="12">
+        <v>8</v>
+      </c>
+      <c r="C161" s="9">
+        <v>115.867</v>
+      </c>
+      <c r="D161" s="10">
+        <v>863051.05810100003</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="12">
+        <v>16</v>
+      </c>
+      <c r="C162" s="9">
+        <v>72.212999999999994</v>
+      </c>
+      <c r="D162" s="10">
+        <v>1384792.211929</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="12">
+        <v>28</v>
+      </c>
+      <c r="C163" s="9">
+        <v>55.988</v>
+      </c>
+      <c r="D163" s="10">
+        <v>1786097.02079</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="33">
+        <v>36</v>
+      </c>
+      <c r="C164" s="34">
+        <v>129.9</v>
+      </c>
+      <c r="D164" s="35">
+        <v>769822.94072399999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="33">
+        <v>39</v>
+      </c>
+      <c r="C165" s="34">
+        <v>31.364000000000001</v>
+      </c>
+      <c r="D165" s="35">
+        <v>3188368.8305060002</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="12">
+        <v>42</v>
+      </c>
+      <c r="C166" s="36">
+        <v>30.920999999999999</v>
+      </c>
+      <c r="D166" s="37">
+        <v>3185930.9290169999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="33">
+        <v>45</v>
+      </c>
+      <c r="C167" s="35">
+        <v>64.012</v>
+      </c>
+      <c r="D167" s="35">
+        <v>1562207.086171</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="33">
+        <v>48</v>
+      </c>
+      <c r="C168" s="35">
+        <v>73.536000000000001</v>
+      </c>
+      <c r="D168" s="35">
+        <v>1359878.1549170001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="33">
+        <v>51</v>
+      </c>
+      <c r="C169" s="35">
+        <v>58.651000000000003</v>
+      </c>
+      <c r="D169" s="35">
+        <v>1704710.1140449999</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="33">
+        <v>54</v>
+      </c>
+      <c r="C170" s="35">
+        <v>82.935000000000002</v>
+      </c>
+      <c r="D170" s="35">
+        <v>1205763.5497679999</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="12">
+        <v>56</v>
+      </c>
+      <c r="C171" s="36">
+        <v>54.692999999999998</v>
+      </c>
+      <c r="D171" s="37">
+        <v>1828120.144056</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="12">
+        <v>72</v>
+      </c>
+      <c r="C172" s="9">
+        <v>39.585000000000001</v>
+      </c>
+      <c r="D172" s="10">
+        <v>2526209.4227610002</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="13">
+        <v>96</v>
+      </c>
+      <c r="C173" s="14">
+        <v>177.88</v>
+      </c>
+      <c r="D173" s="15">
+        <v>562176.74837000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="B101:N101"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="L103:N103"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:N66"/>
     <mergeCell ref="B27:N27"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="L29:N29"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sheet05/data/RayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/RayleighTaylorPerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\manuel\TUM\MolSim-WS23-24\sheet05\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSimPresentation\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B70589-6D39-45B5-BCE4-050A36F3FB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1F865-9DEC-49DE-B2B5-A7919BED6749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Time [s]</t>
   </si>
   <si>
-    <t>Simulations 20.01.2024, branch: 84-parallel-v1</t>
-  </si>
-  <si>
     <t>Run 1</t>
   </si>
   <si>
@@ -63,10 +60,13 @@
     <t>Speedup</t>
   </si>
   <si>
-    <t>Simulations 21.01.2024, branch: 84-parallel-v2</t>
+    <t>Simulations 31.01.2024, branch: master, compiler: icpx (Intel), method: c18-iteration</t>
   </si>
   <si>
-    <t>Simulations 28.01.2024, branch: master (intel compiler)</t>
+    <t>Simulations 31.01.2024, branch: master, compiler: gcc, method: particle-locking</t>
+  </si>
+  <si>
+    <t>Simulations 31.01.2024, branch: master, compiler: gcc, method: c18-iteration</t>
   </si>
 </sst>
 </file>
@@ -537,34 +537,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>348.70800000000003</c:v>
+                  <c:v>359.33199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290.68</c:v>
+                  <c:v>195.24799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.976</c:v>
+                  <c:v>125.961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.239000000000004</c:v>
+                  <c:v>75.894999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.385000000000005</c:v>
+                  <c:v>48.658999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.23</c:v>
+                  <c:v>50.805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.698999999999998</c:v>
+                  <c:v>39.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.575000000000003</c:v>
+                  <c:v>43.277000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.847000000000001</c:v>
+                  <c:v>29.201000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.685000000000002</c:v>
+                  <c:v>46.826999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,34 +660,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>343.89600000000002</c:v>
+                  <c:v>358.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287.39299999999997</c:v>
+                  <c:v>195.684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.31200000000001</c:v>
+                  <c:v>125.459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.884</c:v>
+                  <c:v>76.272999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.361000000000004</c:v>
+                  <c:v>49.554000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.927</c:v>
+                  <c:v>37.133000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.170999999999999</c:v>
+                  <c:v>31.984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.176000000000002</c:v>
+                  <c:v>31.350999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.506</c:v>
+                  <c:v>29.925000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.563000000000002</c:v>
+                  <c:v>77.897000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,34 +783,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>343.25900000000001</c:v>
+                  <c:v>357.54899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>287.51</c:v>
+                  <c:v>194.82300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.447</c:v>
+                  <c:v>124.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.99</c:v>
+                  <c:v>77.542000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.337999999999994</c:v>
+                  <c:v>49.414000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.997999999999998</c:v>
+                  <c:v>37.963000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.615000000000002</c:v>
+                  <c:v>37.473999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.165999999999997</c:v>
+                  <c:v>30.908999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.887999999999998</c:v>
+                  <c:v>38.162999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.545000000000002</c:v>
+                  <c:v>47.838000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,34 +906,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>345.28766666666667</c:v>
+                  <c:v>358.54433333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>288.52766666666668</c:v>
+                  <c:v>195.25166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.57833333333335</c:v>
+                  <c:v>125.17333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.370999999999995</c:v>
+                  <c:v>76.570000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.361333333333334</c:v>
+                  <c:v>49.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.051666666666669</c:v>
+                  <c:v>41.967000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.495000000000005</c:v>
+                  <c:v>36.392666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.972333333333331</c:v>
+                  <c:v>35.179000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.080333333333336</c:v>
+                  <c:v>32.42966666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.597666666666669</c:v>
+                  <c:v>57.520666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1317,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>AVG Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, 3 sample runs)</a:t>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Average of three runs per compiler)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1333,7 +1333,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Simulation of 1000 Iterations on CoolMUC (inter cluster)</a:t>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1450,34 +1450,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>345.28766666666667</c:v>
+                  <c:v>358.54433333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>288.52766666666668</c:v>
+                  <c:v>195.25166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.57833333333335</c:v>
+                  <c:v>125.17333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.370999999999995</c:v>
+                  <c:v>76.570000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.361333333333334</c:v>
+                  <c:v>49.209000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.051666666666669</c:v>
+                  <c:v>41.967000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.495000000000005</c:v>
+                  <c:v>36.392666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.972333333333331</c:v>
+                  <c:v>35.179000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.080333333333336</c:v>
+                  <c:v>32.42966666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.597666666666669</c:v>
+                  <c:v>57.520666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,34 +1565,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>583.30899999999997</c:v>
+                  <c:v>510.34966666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>431.39166666666665</c:v>
+                  <c:v>263.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.99866666666665</c:v>
+                  <c:v>157.07433333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.64200000000002</c:v>
+                  <c:v>95.348666666666659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.425333333333342</c:v>
+                  <c:v>61.193999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.300333333333334</c:v>
+                  <c:v>45.645000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.393333333333331</c:v>
+                  <c:v>37.479000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.742333333333335</c:v>
+                  <c:v>34.883000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.44233333333333</c:v>
+                  <c:v>34.489000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.732500000000002</c:v>
+                  <c:v>36.765000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,7 +1636,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1675,39 +1675,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$L$111:$L$120</c:f>
+              <c:f>Tabelle1!$L$104:$L$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>246.19666666666663</c:v>
+                  <c:v>196.45966666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.89</c:v>
+                  <c:v>104.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.82833333333333</c:v>
+                  <c:v>57.215333333333326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.536999999999999</c:v>
+                  <c:v>34.122000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.080999999999996</c:v>
+                  <c:v>36.532333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.777333333333331</c:v>
+                  <c:v>31.062333333333338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.254000000000001</c:v>
+                  <c:v>30.781666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.672333333333334</c:v>
+                  <c:v>30.661666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.609000000000002</c:v>
+                  <c:v>33.12766666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.361666666666665</c:v>
+                  <c:v>34.398333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +2091,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>AVG MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, 3 sample runs)</a:t>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Average of three runs per compiler)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2107,21 +2107,8 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Simulation of 1000 Iterations on CoolMUC (inter cluster)</a:t>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
@@ -2237,34 +2224,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>289627.89430933335</c:v>
+                  <c:v>278906.73479433334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347024.16207966668</c:v>
+                  <c:v>512161.18052766664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>618896.80443833338</c:v>
+                  <c:v>799116.63315033319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1074416.5521013334</c:v>
+                  <c:v>1306098.7636643334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1553720.0084183335</c:v>
+                  <c:v>2032278.9372533336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2326521.3003383335</c:v>
+                  <c:v>2431801.2781763333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2667124.4803583338</c:v>
+                  <c:v>2770901.1611756664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2237111.3564229999</c:v>
+                  <c:v>2911896.9216549997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2462190.9068036666</c:v>
+                  <c:v>3128855.6265203333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2813346.0656693336</c:v>
+                  <c:v>1836247.9245260002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,37 +2336,37 @@
             <c:numRef>
               <c:f>Tabelle1!$M$68:$M$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>172398.11605700001</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>195989.75587600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232571.46129500002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440859.68482499995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>683137.61181400006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1228713.5830920001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1684676.0836456667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1457496.6231493335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1741875.7621053334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800702.1847566667</c:v>
+                  <c:v>379147.81950566667</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>638525.30019633332</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1048798.4975019998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1638569.0160266666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2196180.3123313333</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2692134.5176876667</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2874629.4926689998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2901635.7104839999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2043070.9855585</c:v>
+                  <c:v>2770404.9393259999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2410,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2462,39 +2449,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$M$111:$M$120</c:f>
+              <c:f>Tabelle1!$M$104:$M$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>408377.81511466665</c:v>
+                  <c:v>509135.52363700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>545342.25667133334</c:v>
+                  <c:v>954901.92933299998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>966190.75807699992</c:v>
+                  <c:v>1749431.4661410002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1651930.1488533334</c:v>
+                  <c:v>2936083.2714179996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2772310.0137126665</c:v>
+                  <c:v>2747396.1786826667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3735548.0533360001</c:v>
+                  <c:v>3251238.3228696664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5193668.3932063328</c:v>
+                  <c:v>3271824.0228113332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2806955.5929956664</c:v>
+                  <c:v>3289460.1066366672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3005186.9261096665</c:v>
+                  <c:v>3065293.1931193336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2751006.0839243331</c:v>
+                  <c:v>2961105.2268123333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2872,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>AVG Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, 3 sample runs)</a:t>
+              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Average of three runs per compiler)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2901,21 +2888,8 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Simulation of 1000 Iterations on CoolMUC (inter cluster)</a:t>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
@@ -3034,31 +3008,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1967229023675372</c:v>
+                  <c:v>1.8363189388054733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1369676214839033</c:v>
+                  <c:v>2.8643827226246272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6980182997575981</c:v>
+                  <c:v>4.6825693265421613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.364830850821404</c:v>
+                  <c:v>7.286153616885799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0203089311292626</c:v>
+                  <c:v>8.5434825775807965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2088989643063517</c:v>
+                  <c:v>9.8521039037168663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6777796719464559</c:v>
+                  <c:v>10.191999014563612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4051817171233587</c:v>
+                  <c:v>11.056059780653516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6997275102300708</c:v>
+                  <c:v>6.2333132439355126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,31 +3123,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3521563930689435</c:v>
+                  <c:v>1.9349603668092248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5583877683495224</c:v>
+                  <c:v>3.2490964999586187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9777758077494845</c:v>
+                  <c:v>5.352457297078093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9919888443158742</c:v>
+                  <c:v>8.3398644747306392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5155926286425849</c:v>
+                  <c:v>11.180844926424946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2864239037787666</c:v>
+                  <c:v>13.616949936408831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9299596543094975</c:v>
+                  <c:v>14.630326137851293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.980932771335846</c:v>
+                  <c:v>14.79746199271265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.855794909970687</c:v>
+                  <c:v>13.881399882134277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3191,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3256,7 +3230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$N$111:$N$120</c:f>
+              <c:f>Tabelle1!$N$104:$N$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3264,31 +3238,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3388257472764513</c:v>
+                  <c:v>1.87586810528661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3711896238984216</c:v>
+                  <c:v>3.4336891043193551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0668792088584933</c:v>
+                  <c:v>5.7575659887071868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8234435483125928</c:v>
+                  <c:v>5.3776928200589431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1942189911865757</c:v>
+                  <c:v>6.3246912122935592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.786780236141405</c:v>
+                  <c:v>6.3823596296496836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9016137622994469</c:v>
+                  <c:v>6.4073381529597215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3253196068513375</c:v>
+                  <c:v>5.9303804473602115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7707750836503635</c:v>
+                  <c:v>5.7113135326323947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,34 +3804,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>286772.88734399999</c:v>
+                  <c:v>278294.16806699999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344746.74903800001</c:v>
+                  <c:v>512169.13873599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617375.41364200006</c:v>
+                  <c:v>793896.52352699998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1072512.5752099999</c:v>
+                  <c:v>1317609.8557219999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1553132.6685929999</c:v>
+                  <c:v>2055118.2720570001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2324338.1447129999</c:v>
+                  <c:v>1968310.205688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2652590.2543830001</c:v>
+                  <c:v>2517623.3635450001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2101944.2984759999</c:v>
+                  <c:v>2310696.2127689999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2642217.348799</c:v>
+                  <c:v>3424540.255471</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2968680.4215529999</c:v>
+                  <c:v>2135018.5746619999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,34 +3927,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>290785.58633999998</c:v>
+                  <c:v>278744.09062500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347955.58694900002</c:v>
+                  <c:v>511027.98389199999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>619916.68319799996</c:v>
+                  <c:v>797066.79419699998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1076611.6876960001</c:v>
+                  <c:v>1311062.747463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1553735.958111</c:v>
+                  <c:v>2018000.56504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2329536.1893449998</c:v>
+                  <c:v>2692949.8572740001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2690269.295957</c:v>
+                  <c:v>3126563.281641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2119721.892488</c:v>
+                  <c:v>3189690.9189499998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2104997.2635039999</c:v>
+                  <c:v>3341687.5522139999</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2735005.3332600002</c:v>
+                  <c:v>1283730.005905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,34 +4050,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>291325.20924400003</c:v>
+                  <c:v>279681.94569099997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>348370.15025200002</c:v>
+                  <c:v>513286.418955</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>619398.316475</c:v>
+                  <c:v>806386.58172699995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1074125.3933979999</c:v>
+                  <c:v>1289623.687808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1554291.398551</c:v>
+                  <c:v>2023717.9746630001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2325689.5669570002</c:v>
+                  <c:v>2634143.7715670001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2658513.8907349999</c:v>
+                  <c:v>2668516.838341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2489667.8783049998</c:v>
+                  <c:v>3235303.6332459999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2639358.1081079999</c:v>
+                  <c:v>2620339.0718760001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2736352.4421950001</c:v>
+                  <c:v>2089995.1930110001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4199,34 +4173,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>289627.89430933335</c:v>
+                  <c:v>278906.73479433334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347024.16207966668</c:v>
+                  <c:v>512161.18052766664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>618896.80443833338</c:v>
+                  <c:v>799116.63315033319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1074416.5521013334</c:v>
+                  <c:v>1306098.7636643334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1553720.0084183335</c:v>
+                  <c:v>2032278.9372533336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2326521.3003383335</c:v>
+                  <c:v>2431801.2781763333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2667124.4803583338</c:v>
+                  <c:v>2770901.1611756664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2237111.3564229999</c:v>
+                  <c:v>2911896.9216549997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2462190.9068036666</c:v>
+                  <c:v>3128855.6265203333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2813346.0656693336</c:v>
+                  <c:v>1836247.9245260002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4774,31 +4748,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1996284574102105</c:v>
+                  <c:v>1.8403876096041958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1528374574010964</c:v>
+                  <c:v>2.8527242559204833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.739937150763093</c:v>
+                  <c:v>4.7345938467619737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4159819833812222</c:v>
+                  <c:v>7.384697589346267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0663428174878575</c:v>
+                  <c:v>7.0727684283043004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2497944242552865</c:v>
+                  <c:v>9.0466263846928499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.329647924330005</c:v>
+                  <c:v>8.303070915266769</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.213623272650409</c:v>
+                  <c:v>12.305468990787986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.352026124387709</c:v>
+                  <c:v>7.6736071070109126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4897,31 +4871,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1966053452937269</c:v>
+                  <c:v>1.8333231127736556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1318686768498312</c:v>
+                  <c:v>2.8595158577702677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7024245295206928</c:v>
+                  <c:v>4.7035254939493667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3432358105063624</c:v>
+                  <c:v>7.239617387092868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0111817737088558</c:v>
+                  <c:v>9.6612716451673712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2517284980226524</c:v>
+                  <c:v>11.216608304152075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.28963879938952</c:v>
+                  <c:v>11.443079965551339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2390013892981946</c:v>
+                  <c:v>11.988370927318297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4055739408691839</c:v>
+                  <c:v>4.6054661925362979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,31 +4994,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1939028207714515</c:v>
+                  <c:v>1.8352504581081288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1261404671502104</c:v>
+                  <c:v>2.8811361804995972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6520800085115441</c:v>
+                  <c:v>4.6110365995202596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3352451117535526</c:v>
+                  <c:v>7.235783381227991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.983138750639565</c:v>
+                  <c:v>9.4183547138002783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1255881961983256</c:v>
+                  <c:v>9.5412552703207556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5460090623910787</c:v>
+                  <c:v>11.567795787634669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0598342483108123</c:v>
+                  <c:v>9.368996148101564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.392776029552607</c:v>
+                  <c:v>7.4741627994481368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5143,31 +5117,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1967229023675372</c:v>
+                  <c:v>1.8363189388054733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1369676214839033</c:v>
+                  <c:v>2.8643827226246272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6980182997575981</c:v>
+                  <c:v>4.6825693265421613</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.364830850821404</c:v>
+                  <c:v>7.286153616885799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0203089311292626</c:v>
+                  <c:v>8.5434825775807965</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2088989643063517</c:v>
+                  <c:v>9.8521039037168663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6777796719464559</c:v>
+                  <c:v>10.191999014563612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4051817171233587</c:v>
+                  <c:v>11.056059780653516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.6997275102300708</c:v>
+                  <c:v>6.2333132439355126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,34 +5670,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>525.29100000000005</c:v>
+                  <c:v>521.45699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.154</c:v>
+                  <c:v>264.97800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205.49</c:v>
+                  <c:v>161.619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138.69200000000001</c:v>
+                  <c:v>94.822999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.287000000000006</c:v>
+                  <c:v>60.265999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.829000000000001</c:v>
+                  <c:v>42.802999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.463999999999999</c:v>
+                  <c:v>38.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.893000000000001</c:v>
+                  <c:v>37.341999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.402999999999999</c:v>
+                  <c:v>33.381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.905000000000001</c:v>
+                  <c:v>35.912999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,34 +5793,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>597.298</c:v>
+                  <c:v>504.86900000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>447.46</c:v>
+                  <c:v>263.35399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>238.86600000000001</c:v>
+                  <c:v>147.934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.624</c:v>
+                  <c:v>95.656000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.302999999999997</c:v>
+                  <c:v>60.795999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.709000000000003</c:v>
+                  <c:v>45.835999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.522000000000006</c:v>
+                  <c:v>37.387</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.373000000000005</c:v>
+                  <c:v>34.411999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.623000000000005</c:v>
+                  <c:v>35.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.56</c:v>
+                  <c:v>37.831000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5942,31 +5916,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>627.33799999999997</c:v>
+                  <c:v>504.72300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>449.56099999999998</c:v>
+                  <c:v>262.92399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239.64</c:v>
+                  <c:v>161.66999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153.61000000000001</c:v>
+                  <c:v>95.566999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.686000000000007</c:v>
+                  <c:v>62.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.363</c:v>
+                  <c:v>48.295999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.194000000000003</c:v>
+                  <c:v>36.53</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.960999999999999</c:v>
+                  <c:v>32.895000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.301000000000002</c:v>
+                  <c:v>34.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.551000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,34 +6039,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>583.30899999999997</c:v>
+                  <c:v>510.34966666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>431.39166666666665</c:v>
+                  <c:v>263.75200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.99866666666665</c:v>
+                  <c:v>157.07433333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.64200000000002</c:v>
+                  <c:v>95.348666666666659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.425333333333342</c:v>
+                  <c:v>61.193999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.300333333333334</c:v>
+                  <c:v>45.645000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.393333333333331</c:v>
+                  <c:v>37.479000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.742333333333335</c:v>
+                  <c:v>34.883000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.44233333333333</c:v>
+                  <c:v>34.489000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.732500000000002</c:v>
+                  <c:v>36.765000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6627,34 +6604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>190370.30832400001</c:v>
+                  <c:v>191769.99873399999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251791.49649799999</c:v>
+                  <c:v>377389.82104200003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>486641.685727</c:v>
+                  <c:v>618739.133394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>721016.92226699996</c:v>
+                  <c:v>1054596.458665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1508591.4281840001</c:v>
+                  <c:v>1659310.3906020001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2135428.900895</c:v>
+                  <c:v>2336284.8398480001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1802971.296697</c:v>
+                  <c:v>2627982.760433</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2132514.4477849999</c:v>
+                  <c:v>2677949.7616619999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2415283.9166239998</c:v>
+                  <c:v>2995626.3854769999</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2638104.7855219999</c:v>
+                  <c:v>2784507.0030350001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6750,34 +6727,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>167420.337218</c:v>
+                  <c:v>198070.79050100001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223483.663344</c:v>
+                  <c:v>379715.59302099998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>418644.76317300001</c:v>
+                  <c:v>675977.12493399996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>677396.62927399995</c:v>
+                  <c:v>1045412.728945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1132464.3556840001</c:v>
+                  <c:v>1644845.055596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1476908.5350540001</c:v>
+                  <c:v>2181691.2470550002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1306796.649373</c:v>
+                  <c:v>2674726.5092139998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1529660.109524</c:v>
+                  <c:v>2905963.0361500001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1500960.614793</c:v>
+                  <c:v>2801120.4481790001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1448037.1855949999</c:v>
+                  <c:v>2790879.406101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,34 +6847,37 @@
             <c:numRef>
               <c:f>Tabelle1!$J$68:$J$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>159403.70262900001</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>198128.478393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222439.22404299999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>417292.60557499999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>650999.28390100005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1045084.965408</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1441690.8149880001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1262721.923378</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1563452.7290070001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1485862.0228530001</c:v>
+                  <c:v>380338.04445400002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>620859.642261</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1046386.304896</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1611551.601882</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2070564.8500910001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2773694.2834160002</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>3039975.680195</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2908160.2977959998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2735828.4088420002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6990,37 +6970,37 @@
             <c:numRef>
               <c:f>Tabelle1!$M$68:$M$77</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>172398.11605700001</c:v>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>195989.75587600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232571.46129500002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440859.68482499995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>683137.61181400006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1228713.5830920001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1684676.0836456667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1457496.6231493335</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1741875.7621053334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1800702.1847566667</c:v>
+                  <c:v>379147.81950566667</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>638525.30019633332</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1048798.4975019998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1638569.0160266666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2196180.3123313333</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2692134.5176876667</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2874629.4926689998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2901635.7104839999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2043070.9855585</c:v>
+                  <c:v>2770404.9393259999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7568,31 +7548,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3226380698671045</c:v>
+                  <c:v>1.9679256391096618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5562849773711616</c:v>
+                  <c:v>3.2264585228221927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7874643094050127</c:v>
+                  <c:v>5.4992670554612282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9244949990194158</c:v>
+                  <c:v>8.6525901835197292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.217215827799015</c:v>
+                  <c:v>12.182720837324487</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.470845954132411</c:v>
+                  <c:v>13.537305295950155</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.201906467916322</c:v>
+                  <c:v>13.964356488672273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.687269038475474</c:v>
+                  <c:v>15.621371438842456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.858092599920855</c:v>
+                  <c:v>14.520006682816808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7691,31 +7671,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3348634514816968</c:v>
+                  <c:v>1.9170735967556978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5005567975350194</c:v>
+                  <c:v>3.4127989508835022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0460765187232433</c:v>
+                  <c:v>5.277964790499289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7641869472158369</c:v>
+                  <c:v>8.3043127837357726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8215451417093735</c:v>
+                  <c:v>11.014682782092679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8055722537309524</c:v>
+                  <c:v>13.503864979805815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1367690024933843</c:v>
+                  <c:v>14.671306520981055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9653422992059788</c:v>
+                  <c:v>14.141988795518207</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.586802760207016</c:v>
+                  <c:v>13.345378129047607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7814,28 +7794,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3954457793269435</c:v>
+                  <c:v>1.9196535881091117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6178350859622768</c:v>
+                  <c:v>3.1219335683800336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0839658876375227</c:v>
+                  <c:v>5.2813523496604482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5562151202892789</c:v>
+                  <c:v>8.0729846449136282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.044274324928276</c:v>
+                  <c:v>10.450617028325327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.921534459681288</c:v>
+                  <c:v>13.816671229126746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8081330810962921</c:v>
+                  <c:v>15.343456452348381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3213770969227792</c:v>
+                  <c:v>14.678153899842959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.808733003201006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7934,31 +7917,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3521563930689435</c:v>
+                  <c:v>1.9349603668092248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5583877683495224</c:v>
+                  <c:v>3.2490964999586187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9777758077494845</c:v>
+                  <c:v>5.352457297078093</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9919888443158742</c:v>
+                  <c:v>8.3398644747306392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5155926286425849</c:v>
+                  <c:v>11.180844926424946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2864239037787666</c:v>
+                  <c:v>13.616949936408831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9299596543094975</c:v>
+                  <c:v>14.630326137851293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.980932771335846</c:v>
+                  <c:v>14.79746199271265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.855794909970687</c:v>
+                  <c:v>13.881399882134277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8317,6 +8300,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -8338,15 +8322,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> icpx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -8354,17 +8339,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8420,7 +8397,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8443,7 +8420,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8482,39 +8459,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$111:$C$120</c:f>
+              <c:f>Tabelle1!$C$104:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>230.86500000000001</c:v>
+                  <c:v>195.40100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.655</c:v>
+                  <c:v>103.898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.52</c:v>
+                  <c:v>56.628999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.442999999999998</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.433999999999997</c:v>
+                  <c:v>35.994999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.353999999999999</c:v>
+                  <c:v>34.966000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.27</c:v>
+                  <c:v>33.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.734999999999999</c:v>
+                  <c:v>30.734000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.93</c:v>
+                  <c:v>30.242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.283999999999999</c:v>
+                  <c:v>29.277999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8522,7 +8499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22A5-471E-92CD-8F270200CD96}"/>
+              <c16:uniqueId val="{00000000-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8543,7 +8520,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8566,7 +8543,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8605,39 +8582,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$111:$F$120</c:f>
+              <c:f>Tabelle1!$F$104:$F$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>235.48599999999999</c:v>
+                  <c:v>193.28800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.77099999999999</c:v>
+                  <c:v>104.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.29300000000001</c:v>
+                  <c:v>55.402999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.192999999999998</c:v>
+                  <c:v>32.692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.569000000000003</c:v>
+                  <c:v>34.101999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.401</c:v>
+                  <c:v>27.407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.189</c:v>
+                  <c:v>27.323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.518000000000001</c:v>
+                  <c:v>29.76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.950000000000003</c:v>
+                  <c:v>29.972999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.970999999999997</c:v>
+                  <c:v>40.709000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8645,7 +8622,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22A5-471E-92CD-8F270200CD96}"/>
+              <c16:uniqueId val="{00000001-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8666,7 +8643,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8689,7 +8666,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8728,39 +8705,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$111:$I$120</c:f>
+              <c:f>Tabelle1!$I$104:$I$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>272.23899999999998</c:v>
+                  <c:v>200.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.244</c:v>
+                  <c:v>105.932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.671999999999997</c:v>
+                  <c:v>59.613999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.975000000000001</c:v>
+                  <c:v>36.173999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.24</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.577000000000002</c:v>
+                  <c:v>30.814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.303000000000001</c:v>
+                  <c:v>31.695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.764000000000003</c:v>
+                  <c:v>31.491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.947000000000003</c:v>
+                  <c:v>39.167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.83</c:v>
+                  <c:v>33.207999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8768,7 +8745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22A5-471E-92CD-8F270200CD96}"/>
+              <c16:uniqueId val="{00000002-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8789,7 +8766,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8812,7 +8789,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8851,39 +8828,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$L$111:$L$120</c:f>
+              <c:f>Tabelle1!$L$104:$L$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>246.19666666666663</c:v>
+                  <c:v>196.45966666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.89</c:v>
+                  <c:v>104.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.82833333333333</c:v>
+                  <c:v>57.215333333333326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.536999999999999</c:v>
+                  <c:v>34.122000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.080999999999996</c:v>
+                  <c:v>36.532333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.777333333333331</c:v>
+                  <c:v>31.062333333333338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.254000000000001</c:v>
+                  <c:v>30.781666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.672333333333334</c:v>
+                  <c:v>30.661666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.609000000000002</c:v>
+                  <c:v>33.12766666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.361666666666665</c:v>
+                  <c:v>34.398333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8891,7 +8868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-22A5-471E-92CD-8F270200CD96}"/>
+              <c16:uniqueId val="{00000003-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9066,7 +9043,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time [s]</a:t>
                 </a:r>
               </a:p>
@@ -9183,14 +9167,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9238,6 +9216,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -9259,15 +9238,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>, icpx</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -9275,30 +9255,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9354,7 +9313,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9377,7 +9336,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9416,39 +9375,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$111:$D$120</c:f>
+              <c:f>Tabelle1!$D$104:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>433155.45082799997</c:v>
+                  <c:v>511768.10763500002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575854.42400200001</c:v>
+                  <c:v>962482.43469599995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>916993.72776299994</c:v>
+                  <c:v>1765879.6729590001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1654451.3012260001</c:v>
+                  <c:v>2985074.6268659998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2744689</c:v>
+                  <c:v>2778163.6338379998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3794490.3999390001</c:v>
+                  <c:v>2859839.2770329998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5189144.3101030001</c:v>
+                  <c:v>3000480.076812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2878940.5498779998</c:v>
+                  <c:v>3253725.5157150002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3131066.44123</c:v>
+                  <c:v>3306550.2760970001</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2682043.717313</c:v>
+                  <c:v>3415533.8479399998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,7 +9415,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09F7-4A80-9D04-044CBA6D4D6F}"/>
+              <c16:uniqueId val="{00000000-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9477,7 +9436,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9500,7 +9459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9539,39 +9498,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$111:$G$120</c:f>
+              <c:f>Tabelle1!$G$104:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>424653.69491199998</c:v>
+                  <c:v>517360.01531400002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>553186.07519999996</c:v>
+                  <c:v>958221.54081999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>968119.81450800004</c:v>
+                  <c:v>1804956.4103029999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1661322.74517</c:v>
+                  <c:v>3058758.7556969998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2734556.5916490001</c:v>
+                  <c:v>2932379.3325899998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3649501.8429979999</c:v>
+                  <c:v>3648702.886124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5211318.9848349998</c:v>
+                  <c:v>3659920.2137389998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2665387.2807720001</c:v>
+                  <c:v>3439144.3408880001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2849408.7476849998</c:v>
+                  <c:v>3336224.7280979999</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2780017.2361070001</c:v>
+                  <c:v>2456459.2596229999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9579,7 +9538,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09F7-4A80-9D04-044CBA6D4D6F}"/>
+              <c16:uniqueId val="{00000001-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9600,7 +9559,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9623,7 +9582,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9662,39 +9621,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$J$111:$J$120</c:f>
+              <c:f>Tabelle1!$J$104:$J$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>367324.299604</c:v>
+                  <c:v>498278.44796199998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>506986.27081199997</c:v>
+                  <c:v>944001.81248299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1013458.73196</c:v>
+                  <c:v>1677458.315161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1640016.400164</c:v>
+                  <c:v>2764416.4316909998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2837684.4494889998</c:v>
+                  <c:v>2531645.5696200002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3762651.9170710002</c:v>
+                  <c:v>3245172.8054519999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5180541.8846810004</c:v>
+                  <c:v>3155071.7778830002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2876538.9483369999</c:v>
+                  <c:v>3175510.4633070002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3035085.589414</c:v>
+                  <c:v>2553104.5751629998</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>2790957.2983530001</c:v>
+                  <c:v>3011322.5728739998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9702,7 +9661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-09F7-4A80-9D04-044CBA6D4D6F}"/>
+              <c16:uniqueId val="{00000002-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9723,7 +9682,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9746,7 +9705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9785,39 +9744,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$M$111:$M$120</c:f>
+              <c:f>Tabelle1!$M$104:$M$113</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>408377.81511466665</c:v>
+                  <c:v>509135.52363700001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>545342.25667133334</c:v>
+                  <c:v>954901.92933299998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>966190.75807699992</c:v>
+                  <c:v>1749431.4661410002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1651930.1488533334</c:v>
+                  <c:v>2936083.2714179996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2772310.0137126665</c:v>
+                  <c:v>2747396.1786826667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3735548.0533360001</c:v>
+                  <c:v>3251238.3228696664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5193668.3932063328</c:v>
+                  <c:v>3271824.0228113332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2806955.5929956664</c:v>
+                  <c:v>3289460.1066366672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3005186.9261096665</c:v>
+                  <c:v>3065293.1931193336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2751006.0839243331</c:v>
+                  <c:v>2961105.2268123333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9825,7 +9784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-09F7-4A80-9D04-044CBA6D4D6F}"/>
+              <c16:uniqueId val="{00000003-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9837,14 +9796,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357084383"/>
-        <c:axId val="419199439"/>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357084383"/>
+        <c:axId val="135129311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9882,7 +9842,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>#Threads</a:t>
                 </a:r>
               </a:p>
@@ -9954,12 +9921,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419199439"/>
+        <c:crossAx val="419537823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419199439"/>
+        <c:axId val="419537823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9999,14 +9966,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Million Molecule Updates</a:t>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Million Molecule Updates per Second</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> per Second</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10076,7 +10045,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357084383"/>
+        <c:crossAx val="135129311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -10124,14 +10093,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10179,6 +10142,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -10200,14 +10164,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 2)</a:t>
             </a:r>
           </a:p>
@@ -10216,30 +10173,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10295,7 +10231,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10318,7 +10254,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10357,7 +10293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$111:$E$120</c:f>
+              <c:f>Tabelle1!$E$104:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10365,31 +10301,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3294463159713226</c:v>
+                  <c:v>1.8807003022194846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1079711468224982</c:v>
+                  <c:v>3.4505465397587813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.819548996575286</c:v>
+                  <c:v>5.832865671641791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3365263215677672</c:v>
+                  <c:v>5.4285595221558554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7601502618198381</c:v>
+                  <c:v>5.5883143625235947</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.980539699014011</c:v>
+                  <c:v>5.863143997359499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6464661004750258</c:v>
+                  <c:v>6.3578121949632331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2303476354525529</c:v>
+                  <c:v>6.4612459493419747</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1920663018989384</c:v>
+                  <c:v>6.6739872942140863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10397,7 +10333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-560C-4F86-8A64-C6A003B13235}"/>
+              <c16:uniqueId val="{00000000-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10418,7 +10354,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10441,7 +10377,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10480,7 +10416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$111:$H$120</c:f>
+              <c:f>Tabelle1!$H$104:$H$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10488,31 +10424,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3026757610457429</c:v>
+                  <c:v>1.8521272518206211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2797866263928821</c:v>
+                  <c:v>3.4887641463458658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9121824796903293</c:v>
+                  <c:v>5.9123944695950081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.439497935409773</c:v>
+                  <c:v>5.6679373643774564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5940659100032839</c:v>
+                  <c:v>7.0525048345313248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.271926624628692</c:v>
+                  <c:v>7.074186582732497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2766138919985073</c:v>
+                  <c:v>6.4948924731182798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5503755215577186</c:v>
+                  <c:v>6.4487371968104634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5465513886186102</c:v>
+                  <c:v>4.7480409737404505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10520,7 +10456,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-560C-4F86-8A64-C6A003B13235}"/>
+              <c16:uniqueId val="{00000001-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10541,7 +10477,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10564,7 +10500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10603,7 +10539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$K$111:$K$120</c:f>
+              <c:f>Tabelle1!$K$104:$K$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10611,31 +10547,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3802143537952991</c:v>
+                  <c:v>1.8945172374730959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7590299173017674</c:v>
+                  <c:v>3.3664910926963465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.464764247642476</c:v>
+                  <c:v>5.5479073367612095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7252837684449478</c:v>
+                  <c:v>5.080759493670886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.243405952515332</c:v>
+                  <c:v>6.512948659700136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.103455421437081</c:v>
+                  <c:v>6.3319135510332858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8310608675641458</c:v>
+                  <c:v>6.3729319488107716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2629374449874025</c:v>
+                  <c:v>5.1238255718954253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5980742394641361</c:v>
+                  <c:v>6.0434232715008438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10643,7 +10579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-560C-4F86-8A64-C6A003B13235}"/>
+              <c16:uniqueId val="{00000002-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10664,7 +10600,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10687,7 +10623,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$111:$B$120</c:f>
+              <c:f>Tabelle1!$B$104:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10726,7 +10662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$N$111:$N$120</c:f>
+              <c:f>Tabelle1!$N$104:$N$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10734,31 +10670,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3388257472764513</c:v>
+                  <c:v>1.87586810528661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3711896238984216</c:v>
+                  <c:v>3.4336891043193551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0668792088584933</c:v>
+                  <c:v>5.7575659887071868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8234435483125928</c:v>
+                  <c:v>5.3776928200589431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1942189911865757</c:v>
+                  <c:v>6.3246912122935592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.786780236141405</c:v>
+                  <c:v>6.3823596296496836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9016137622994469</c:v>
+                  <c:v>6.4073381529597215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3253196068513375</c:v>
+                  <c:v>5.9303804473602115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7707750836503635</c:v>
+                  <c:v>5.7113135326323947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10766,7 +10702,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-560C-4F86-8A64-C6A003B13235}"/>
+              <c16:uniqueId val="{00000003-C2DC-4D97-870C-E17951B39B4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10778,14 +10714,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357084383"/>
-        <c:axId val="419199439"/>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357084383"/>
+        <c:axId val="135129311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10823,7 +10760,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>#Threads</a:t>
                 </a:r>
               </a:p>
@@ -10895,12 +10839,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419199439"/>
+        <c:crossAx val="419537823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419199439"/>
+        <c:axId val="419537823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10940,14 +10884,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Speedup</a:t>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Speedup [Time(1 Thread)/Time(n Threads)]</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> [Time(1 Thread)/Time(n Threads)]</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11017,7 +10963,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357084383"/>
+        <c:crossAx val="135129311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11062,14 +11008,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -18009,15 +17949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>558053</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>57388</xdr:rowOff>
+      <xdr:colOff>580465</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>147035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>490074</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>40610</xdr:rowOff>
+      <xdr:colOff>512486</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>130257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18047,15 +17987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>530769</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>56827</xdr:rowOff>
+      <xdr:colOff>553181</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>146474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>320473</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>35967</xdr:rowOff>
+      <xdr:colOff>342885</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>125614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18085,15 +18025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>462163</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>40013</xdr:rowOff>
+      <xdr:colOff>484575</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>129660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>568114</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>17791</xdr:rowOff>
+      <xdr:colOff>590526</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>107438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18123,15 +18063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>392726</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>173769</xdr:rowOff>
+      <xdr:colOff>527197</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>162563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>319304</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>163794</xdr:rowOff>
+      <xdr:colOff>453775</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>152588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18161,15 +18101,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>350312</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>173208</xdr:rowOff>
+      <xdr:colOff>484783</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>162002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>120968</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>155069</xdr:rowOff>
+      <xdr:colOff>255439</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>143863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18199,15 +18139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>299556</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>163197</xdr:rowOff>
+      <xdr:colOff>434027</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>151991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>387819</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>134172</xdr:rowOff>
+      <xdr:colOff>522290</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>122966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18498,29 +18438,785 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B26:N120"/>
+  <dimension ref="B26:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J184" sqref="J184"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="3" max="3" width="13.3046875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3828125" customWidth="1"/>
-    <col min="10" max="10" width="11.69140625" customWidth="1"/>
-    <col min="13" max="13" width="12.3046875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -18535,99 +19231,99 @@
       <c r="M27" s="28"/>
       <c r="N27" s="29"/>
     </row>
-    <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="32"/>
       <c r="F29" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="31"/>
       <c r="H29" s="32"/>
       <c r="I29" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
       <c r="L29" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>1</v>
       </c>
       <c r="C31" s="17">
-        <v>348.70800000000003</v>
+        <v>359.33199999999999</v>
       </c>
       <c r="D31" s="18">
-        <v>286772.88734399999</v>
+        <v>278294.16806699999</v>
       </c>
       <c r="E31" s="19">
         <f>C$31/C31</f>
         <v>1</v>
       </c>
       <c r="F31" s="9">
-        <v>343.89600000000002</v>
+        <v>358.75200000000001</v>
       </c>
       <c r="G31" s="10">
-        <v>290785.58633999998</v>
+        <v>278744.09062500001</v>
       </c>
       <c r="H31" s="19">
         <f>F$31/F31</f>
         <v>1</v>
       </c>
       <c r="I31" s="9">
-        <v>343.25900000000001</v>
+        <v>357.54899999999998</v>
       </c>
       <c r="J31" s="10">
-        <v>291325.20924400003</v>
+        <v>279681.94569099997</v>
       </c>
       <c r="K31" s="19">
         <f>I$31/I31</f>
@@ -18635,442 +19331,442 @@
       </c>
       <c r="L31" s="17">
         <f t="shared" ref="L31:L40" si="0">AVERAGE(C31,F31,I31)</f>
-        <v>345.28766666666667</v>
+        <v>358.54433333333333</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ref="M31:M40" si="1">AVERAGE(D31,G31,J31)</f>
-        <v>289627.89430933335</v>
+        <v>278906.73479433334</v>
       </c>
       <c r="N31" s="19">
         <f>L$31/L31</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>2</v>
       </c>
       <c r="C32" s="9">
-        <v>290.68</v>
+        <v>195.24799999999999</v>
       </c>
       <c r="D32" s="10">
-        <v>344746.74903800001</v>
+        <v>512169.13873599999</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" ref="E32:E40" si="2">C$31/C32</f>
-        <v>1.1996284574102105</v>
+        <v>1.8403876096041958</v>
       </c>
       <c r="F32" s="9">
-        <v>287.39299999999997</v>
+        <v>195.684</v>
       </c>
       <c r="G32" s="10">
-        <v>347955.58694900002</v>
+        <v>511027.98389199999</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" ref="H32:H40" si="3">F$31/F32</f>
-        <v>1.1966053452937269</v>
+        <v>1.8333231127736556</v>
       </c>
       <c r="I32" s="9">
-        <v>287.51</v>
+        <v>194.82300000000001</v>
       </c>
       <c r="J32" s="10">
-        <v>348370.15025200002</v>
+        <v>513286.418955</v>
       </c>
       <c r="K32" s="11">
         <f t="shared" ref="K32:K40" si="4">I$31/I32</f>
-        <v>1.1939028207714515</v>
+        <v>1.8352504581081288</v>
       </c>
       <c r="L32" s="9">
         <f t="shared" si="0"/>
-        <v>288.52766666666668</v>
+        <v>195.25166666666667</v>
       </c>
       <c r="M32" s="10">
         <f t="shared" si="1"/>
-        <v>347024.16207966668</v>
+        <v>512161.18052766664</v>
       </c>
       <c r="N32" s="11">
         <f t="shared" ref="N32:N40" si="5">L$31/L32</f>
-        <v>1.1967229023675372</v>
+        <v>1.8363189388054733</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>4</v>
       </c>
       <c r="C33" s="9">
-        <v>161.976</v>
+        <v>125.961</v>
       </c>
       <c r="D33" s="10">
-        <v>617375.41364200006</v>
+        <v>793896.52352699998</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="2"/>
-        <v>2.1528374574010964</v>
+        <v>2.8527242559204833</v>
       </c>
       <c r="F33" s="9">
-        <v>161.31200000000001</v>
+        <v>125.459</v>
       </c>
       <c r="G33" s="10">
-        <v>619916.68319799996</v>
+        <v>797066.79419699998</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="3"/>
-        <v>2.1318686768498312</v>
+        <v>2.8595158577702677</v>
       </c>
       <c r="I33" s="9">
-        <v>161.447</v>
+        <v>124.1</v>
       </c>
       <c r="J33" s="10">
-        <v>619398.316475</v>
+        <v>806386.58172699995</v>
       </c>
       <c r="K33" s="11">
         <f t="shared" si="4"/>
-        <v>2.1261404671502104</v>
+        <v>2.8811361804995972</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="0"/>
-        <v>161.57833333333335</v>
+        <v>125.17333333333333</v>
       </c>
       <c r="M33" s="10">
         <f t="shared" si="1"/>
-        <v>618896.80443833338</v>
+        <v>799116.63315033319</v>
       </c>
       <c r="N33" s="11">
         <f t="shared" si="5"/>
-        <v>2.1369676214839033</v>
+        <v>2.8643827226246272</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <v>8</v>
       </c>
       <c r="C34" s="9">
-        <v>93.239000000000004</v>
+        <v>75.894999999999996</v>
       </c>
       <c r="D34" s="10">
-        <v>1072512.5752099999</v>
+        <v>1317609.8557219999</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="2"/>
-        <v>3.739937150763093</v>
+        <v>4.7345938467619737</v>
       </c>
       <c r="F34" s="9">
-        <v>92.884</v>
+        <v>76.272999999999996</v>
       </c>
       <c r="G34" s="10">
-        <v>1076611.6876960001</v>
+        <v>1311062.747463</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="3"/>
-        <v>3.7024245295206928</v>
+        <v>4.7035254939493667</v>
       </c>
       <c r="I34" s="9">
-        <v>93.99</v>
+        <v>77.542000000000002</v>
       </c>
       <c r="J34" s="10">
-        <v>1074125.3933979999</v>
+        <v>1289623.687808</v>
       </c>
       <c r="K34" s="11">
         <f t="shared" si="4"/>
-        <v>3.6520800085115441</v>
+        <v>4.6110365995202596</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="0"/>
-        <v>93.370999999999995</v>
+        <v>76.570000000000007</v>
       </c>
       <c r="M34" s="10">
         <f t="shared" si="1"/>
-        <v>1074416.5521013334</v>
+        <v>1306098.7636643334</v>
       </c>
       <c r="N34" s="11">
         <f t="shared" si="5"/>
-        <v>3.6980182997575981</v>
+        <v>4.6825693265421613</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <v>16</v>
       </c>
       <c r="C35" s="9">
-        <v>64.385000000000005</v>
+        <v>48.658999999999999</v>
       </c>
       <c r="D35" s="10">
-        <v>1553132.6685929999</v>
+        <v>2055118.2720570001</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="2"/>
-        <v>5.4159819833812222</v>
+        <v>7.384697589346267</v>
       </c>
       <c r="F35" s="9">
-        <v>64.361000000000004</v>
+        <v>49.554000000000002</v>
       </c>
       <c r="G35" s="10">
-        <v>1553735.958111</v>
+        <v>2018000.56504</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="3"/>
-        <v>5.3432358105063624</v>
+        <v>7.239617387092868</v>
       </c>
       <c r="I35" s="9">
-        <v>64.337999999999994</v>
+        <v>49.414000000000001</v>
       </c>
       <c r="J35" s="10">
-        <v>1554291.398551</v>
+        <v>2023717.9746630001</v>
       </c>
       <c r="K35" s="11">
         <f t="shared" si="4"/>
-        <v>5.3352451117535526</v>
+        <v>7.235783381227991</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="0"/>
-        <v>64.361333333333334</v>
+        <v>49.209000000000003</v>
       </c>
       <c r="M35" s="10">
         <f t="shared" si="1"/>
-        <v>1553720.0084183335</v>
+        <v>2032278.9372533336</v>
       </c>
       <c r="N35" s="11">
         <f t="shared" si="5"/>
-        <v>5.364830850821404</v>
+        <v>7.286153616885799</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <v>28</v>
       </c>
       <c r="C36" s="9">
-        <v>43.23</v>
+        <v>50.805</v>
       </c>
       <c r="D36" s="10">
-        <v>2324338.1447129999</v>
+        <v>1968310.205688</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="2"/>
-        <v>8.0663428174878575</v>
+        <v>7.0727684283043004</v>
       </c>
       <c r="F36" s="9">
-        <v>42.927</v>
+        <v>37.133000000000003</v>
       </c>
       <c r="G36" s="10">
-        <v>2329536.1893449998</v>
+        <v>2692949.8572740001</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="3"/>
-        <v>8.0111817737088558</v>
+        <v>9.6612716451673712</v>
       </c>
       <c r="I36" s="9">
-        <v>42.997999999999998</v>
+        <v>37.963000000000001</v>
       </c>
       <c r="J36" s="10">
-        <v>2325689.5669570002</v>
+        <v>2634143.7715670001</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="4"/>
-        <v>7.983138750639565</v>
+        <v>9.4183547138002783</v>
       </c>
       <c r="L36" s="9">
         <f t="shared" si="0"/>
-        <v>43.051666666666669</v>
+        <v>41.967000000000006</v>
       </c>
       <c r="M36" s="10">
         <f t="shared" si="1"/>
-        <v>2326521.3003383335</v>
+        <v>2431801.2781763333</v>
       </c>
       <c r="N36" s="11">
         <f t="shared" si="5"/>
-        <v>8.0203089311292626</v>
+        <v>8.5434825775807965</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <v>42</v>
       </c>
       <c r="C37" s="9">
-        <v>37.698999999999998</v>
+        <v>39.72</v>
       </c>
       <c r="D37" s="10">
-        <v>2652590.2543830001</v>
+        <v>2517623.3635450001</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="2"/>
-        <v>9.2497944242552865</v>
+        <v>9.0466263846928499</v>
       </c>
       <c r="F37" s="9">
-        <v>37.170999999999999</v>
+        <v>31.984000000000002</v>
       </c>
       <c r="G37" s="10">
-        <v>2690269.295957</v>
+        <v>3126563.281641</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
-        <v>9.2517284980226524</v>
+        <v>11.216608304152075</v>
       </c>
       <c r="I37" s="9">
-        <v>37.615000000000002</v>
+        <v>37.473999999999997</v>
       </c>
       <c r="J37" s="10">
-        <v>2658513.8907349999</v>
+        <v>2668516.838341</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="4"/>
-        <v>9.1255881961983256</v>
+        <v>9.5412552703207556</v>
       </c>
       <c r="L37" s="9">
         <f t="shared" si="0"/>
-        <v>37.495000000000005</v>
+        <v>36.392666666666663</v>
       </c>
       <c r="M37" s="10">
         <f t="shared" si="1"/>
-        <v>2667124.4803583338</v>
+        <v>2770901.1611756664</v>
       </c>
       <c r="N37" s="11">
         <f t="shared" si="5"/>
-        <v>9.2088989643063517</v>
+        <v>9.8521039037168663</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <v>56</v>
       </c>
       <c r="C38" s="9">
-        <v>47.575000000000003</v>
+        <v>43.277000000000001</v>
       </c>
       <c r="D38" s="10">
-        <v>2101944.2984759999</v>
+        <v>2310696.2127689999</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>7.329647924330005</v>
+        <v>8.303070915266769</v>
       </c>
       <c r="F38" s="9">
-        <v>47.176000000000002</v>
+        <v>31.350999999999999</v>
       </c>
       <c r="G38" s="10">
-        <v>2119721.892488</v>
+        <v>3189690.9189499998</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="3"/>
-        <v>7.28963879938952</v>
+        <v>11.443079965551339</v>
       </c>
       <c r="I38" s="9">
-        <v>40.165999999999997</v>
+        <v>30.908999999999999</v>
       </c>
       <c r="J38" s="10">
-        <v>2489667.8783049998</v>
+        <v>3235303.6332459999</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="4"/>
-        <v>8.5460090623910787</v>
+        <v>11.567795787634669</v>
       </c>
       <c r="L38" s="9">
         <f t="shared" si="0"/>
-        <v>44.972333333333331</v>
+        <v>35.179000000000002</v>
       </c>
       <c r="M38" s="10">
         <f t="shared" si="1"/>
-        <v>2237111.3564229999</v>
+        <v>2911896.9216549997</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="5"/>
-        <v>7.6777796719464559</v>
+        <v>10.191999014563612</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>72</v>
       </c>
       <c r="C39" s="9">
-        <v>37.847000000000001</v>
+        <v>29.201000000000001</v>
       </c>
       <c r="D39" s="10">
-        <v>2642217.348799</v>
+        <v>3424540.255471</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="2"/>
-        <v>9.213623272650409</v>
+        <v>12.305468990787986</v>
       </c>
       <c r="F39" s="9">
-        <v>47.506</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="G39" s="10">
-        <v>2104997.2635039999</v>
+        <v>3341687.5522139999</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="3"/>
-        <v>7.2390013892981946</v>
+        <v>11.988370927318297</v>
       </c>
       <c r="I39" s="9">
-        <v>37.887999999999998</v>
+        <v>38.162999999999997</v>
       </c>
       <c r="J39" s="10">
-        <v>2639358.1081079999</v>
+        <v>2620339.0718760001</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" si="4"/>
-        <v>9.0598342483108123</v>
+        <v>9.368996148101564</v>
       </c>
       <c r="L39" s="9">
         <f t="shared" si="0"/>
-        <v>41.080333333333336</v>
+        <v>32.42966666666667</v>
       </c>
       <c r="M39" s="10">
         <f t="shared" si="1"/>
-        <v>2462190.9068036666</v>
+        <v>3128855.6265203333</v>
       </c>
       <c r="N39" s="11">
         <f t="shared" si="5"/>
-        <v>8.4051817171233587</v>
+        <v>11.056059780653516</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>96</v>
       </c>
       <c r="C40" s="14">
-        <v>33.685000000000002</v>
+        <v>46.826999999999998</v>
       </c>
       <c r="D40" s="15">
-        <v>2968680.4215529999</v>
+        <v>2135018.5746619999</v>
       </c>
       <c r="E40" s="16">
         <f t="shared" si="2"/>
-        <v>10.352026124387709</v>
+        <v>7.6736071070109126</v>
       </c>
       <c r="F40" s="14">
-        <v>36.563000000000002</v>
+        <v>77.897000000000006</v>
       </c>
       <c r="G40" s="15">
-        <v>2735005.3332600002</v>
+        <v>1283730.005905</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="3"/>
-        <v>9.4055739408691839</v>
+        <v>4.6054661925362979</v>
       </c>
       <c r="I40" s="14">
-        <v>36.545000000000002</v>
+        <v>47.838000000000001</v>
       </c>
       <c r="J40" s="15">
-        <v>2736352.4421950001</v>
+        <v>2089995.1930110001</v>
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>9.392776029552607</v>
+        <v>7.4741627994481368</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" si="0"/>
-        <v>35.597666666666669</v>
+        <v>57.520666666666671</v>
       </c>
       <c r="M40" s="20">
         <f t="shared" si="1"/>
-        <v>2813346.0656693336</v>
+        <v>1836247.9245260002</v>
       </c>
       <c r="N40" s="16">
         <f t="shared" si="5"/>
-        <v>9.6997275102300708</v>
+        <v>6.2333132439355126</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="27" t="s">
         <v>9</v>
       </c>
@@ -19087,1102 +19783,1109 @@
       <c r="M64" s="28"/>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="66" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="32"/>
       <c r="F66" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="31"/>
       <c r="H66" s="32"/>
       <c r="I66" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J66" s="31"/>
       <c r="K66" s="32"/>
       <c r="L66" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="32"/>
     </row>
-    <row r="67" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>8</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>0</v>
       </c>
       <c r="G67" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="22" t="s">
         <v>7</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>8</v>
       </c>
       <c r="I67" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="21" t="s">
         <v>7</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>8</v>
       </c>
       <c r="L67" s="26" t="s">
         <v>0</v>
       </c>
       <c r="M67" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N67" s="22" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>1</v>
       </c>
       <c r="C68" s="17">
-        <v>525.29100000000005</v>
+        <v>521.45699999999999</v>
       </c>
       <c r="D68" s="18">
-        <v>190370.30832400001</v>
+        <v>191769.99873399999</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ref="E68:E77" si="6">C$68/C68</f>
         <v>1</v>
       </c>
       <c r="F68" s="17">
-        <v>597.298</v>
+        <v>504.86900000000003</v>
       </c>
       <c r="G68" s="18">
-        <v>167420.337218</v>
+        <v>198070.79050100001</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" ref="H68:H77" si="7">F$68/F68</f>
         <v>1</v>
       </c>
       <c r="I68" s="17">
-        <v>627.33799999999997</v>
+        <v>504.72300000000001</v>
       </c>
       <c r="J68" s="18">
-        <v>159403.70262900001</v>
+        <v>198128.478393</v>
       </c>
       <c r="K68" s="19">
-        <f t="shared" ref="K68:K76" si="8">I$68/I68</f>
+        <f t="shared" ref="K68:K77" si="8">I$68/I68</f>
         <v>1</v>
       </c>
       <c r="L68" s="17">
         <f t="shared" ref="L68:L77" si="9">AVERAGE(C68,F68,I68)</f>
-        <v>583.30899999999997</v>
+        <v>510.34966666666668</v>
       </c>
       <c r="M68" s="18">
         <f t="shared" ref="M68:M77" si="10">AVERAGE(D68,G68,J68)</f>
-        <v>172398.11605700001</v>
+        <v>195989.75587600001</v>
       </c>
       <c r="N68" s="19">
         <f t="shared" ref="N68:N77" si="11">L$68/L68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <v>2</v>
       </c>
       <c r="C69" s="9">
-        <v>397.154</v>
+        <v>264.97800000000001</v>
       </c>
       <c r="D69" s="10">
-        <v>251791.49649799999</v>
+        <v>377389.82104200003</v>
       </c>
       <c r="E69" s="11">
         <f t="shared" si="6"/>
-        <v>1.3226380698671045</v>
+        <v>1.9679256391096618</v>
       </c>
       <c r="F69" s="9">
-        <v>447.46</v>
+        <v>263.35399999999998</v>
       </c>
       <c r="G69" s="10">
-        <v>223483.663344</v>
+        <v>379715.59302099998</v>
       </c>
       <c r="H69" s="11">
         <f t="shared" si="7"/>
-        <v>1.3348634514816968</v>
+        <v>1.9170735967556978</v>
       </c>
       <c r="I69" s="9">
-        <v>449.56099999999998</v>
-      </c>
-      <c r="J69" s="10">
-        <v>222439.22404299999</v>
+        <v>262.92399999999998</v>
+      </c>
+      <c r="J69">
+        <v>380338.04445400002</v>
       </c>
       <c r="K69" s="11">
         <f t="shared" si="8"/>
-        <v>1.3954457793269435</v>
+        <v>1.9196535881091117</v>
       </c>
       <c r="L69" s="9">
         <f t="shared" si="9"/>
-        <v>431.39166666666665</v>
-      </c>
-      <c r="M69" s="10">
+        <v>263.75200000000001</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="10"/>
-        <v>232571.46129500002</v>
+        <v>379147.81950566667</v>
       </c>
       <c r="N69" s="11">
         <f t="shared" si="11"/>
-        <v>1.3521563930689435</v>
+        <v>1.9349603668092248</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <v>4</v>
       </c>
       <c r="C70" s="9">
-        <v>205.49</v>
+        <v>161.619</v>
       </c>
       <c r="D70" s="10">
-        <v>486641.685727</v>
+        <v>618739.133394</v>
       </c>
       <c r="E70" s="11">
         <f t="shared" si="6"/>
-        <v>2.5562849773711616</v>
+        <v>3.2264585228221927</v>
       </c>
       <c r="F70" s="9">
-        <v>238.86600000000001</v>
+        <v>147.934</v>
       </c>
       <c r="G70" s="10">
-        <v>418644.76317300001</v>
+        <v>675977.12493399996</v>
       </c>
       <c r="H70" s="11">
         <f t="shared" si="7"/>
-        <v>2.5005567975350194</v>
+        <v>3.4127989508835022</v>
       </c>
       <c r="I70" s="9">
-        <v>239.64</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="J70" s="10">
-        <v>417292.60557499999</v>
+        <v>620859.642261</v>
       </c>
       <c r="K70" s="11">
         <f t="shared" si="8"/>
-        <v>2.6178350859622768</v>
+        <v>3.1219335683800336</v>
       </c>
       <c r="L70" s="9">
         <f t="shared" si="9"/>
-        <v>227.99866666666665</v>
+        <v>157.07433333333333</v>
       </c>
       <c r="M70" s="10">
         <f t="shared" si="10"/>
-        <v>440859.68482499995</v>
+        <v>638525.30019633332</v>
       </c>
       <c r="N70" s="11">
         <f t="shared" si="11"/>
-        <v>2.5583877683495224</v>
+        <v>3.2490964999586187</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <v>8</v>
       </c>
       <c r="C71" s="9">
-        <v>138.69200000000001</v>
+        <v>94.822999999999993</v>
       </c>
       <c r="D71" s="10">
-        <v>721016.92226699996</v>
+        <v>1054596.458665</v>
       </c>
       <c r="E71" s="11">
         <f t="shared" si="6"/>
-        <v>3.7874643094050127</v>
+        <v>5.4992670554612282</v>
       </c>
       <c r="F71" s="9">
-        <v>147.624</v>
+        <v>95.656000000000006</v>
       </c>
       <c r="G71" s="10">
-        <v>677396.62927399995</v>
+        <v>1045412.728945</v>
       </c>
       <c r="H71" s="11">
         <f t="shared" si="7"/>
-        <v>4.0460765187232433</v>
+        <v>5.277964790499289</v>
       </c>
       <c r="I71" s="9">
-        <v>153.61000000000001</v>
+        <v>95.566999999999993</v>
       </c>
       <c r="J71" s="10">
-        <v>650999.28390100005</v>
+        <v>1046386.304896</v>
       </c>
       <c r="K71" s="11">
         <f t="shared" si="8"/>
-        <v>4.0839658876375227</v>
+        <v>5.2813523496604482</v>
       </c>
       <c r="L71" s="9">
         <f t="shared" si="9"/>
-        <v>146.64200000000002</v>
+        <v>95.348666666666659</v>
       </c>
       <c r="M71" s="10">
         <f t="shared" si="10"/>
-        <v>683137.61181400006</v>
+        <v>1048798.4975019998</v>
       </c>
       <c r="N71" s="11">
         <f t="shared" si="11"/>
-        <v>3.9777758077494845</v>
+        <v>5.352457297078093</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <v>16</v>
       </c>
       <c r="C72" s="9">
-        <v>66.287000000000006</v>
+        <v>60.265999999999998</v>
       </c>
       <c r="D72" s="10">
-        <v>1508591.4281840001</v>
+        <v>1659310.3906020001</v>
       </c>
       <c r="E72" s="11">
         <f t="shared" si="6"/>
-        <v>7.9244949990194158</v>
+        <v>8.6525901835197292</v>
       </c>
       <c r="F72" s="9">
-        <v>88.302999999999997</v>
+        <v>60.795999999999999</v>
       </c>
       <c r="G72" s="10">
-        <v>1132464.3556840001</v>
+        <v>1644845.055596</v>
       </c>
       <c r="H72" s="11">
         <f t="shared" si="7"/>
-        <v>6.7641869472158369</v>
+        <v>8.3043127837357726</v>
       </c>
       <c r="I72" s="9">
-        <v>95.686000000000007</v>
+        <v>62.52</v>
       </c>
       <c r="J72" s="10">
-        <v>1045084.965408</v>
+        <v>1611551.601882</v>
       </c>
       <c r="K72" s="11">
         <f t="shared" si="8"/>
-        <v>6.5562151202892789</v>
+        <v>8.0729846449136282</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="9"/>
-        <v>83.425333333333342</v>
+        <v>61.193999999999996</v>
       </c>
       <c r="M72" s="10">
         <f t="shared" si="10"/>
-        <v>1228713.5830920001</v>
+        <v>1638569.0160266666</v>
       </c>
       <c r="N72" s="11">
         <f t="shared" si="11"/>
-        <v>6.9919888443158742</v>
+        <v>8.3398644747306392</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <v>28</v>
       </c>
       <c r="C73" s="9">
-        <v>46.829000000000001</v>
+        <v>42.802999999999997</v>
       </c>
       <c r="D73" s="10">
-        <v>2135428.900895</v>
+        <v>2336284.8398480001</v>
       </c>
       <c r="E73" s="11">
         <f t="shared" si="6"/>
-        <v>11.217215827799015</v>
+        <v>12.182720837324487</v>
       </c>
       <c r="F73" s="9">
-        <v>67.709000000000003</v>
+        <v>45.835999999999999</v>
       </c>
       <c r="G73" s="10">
-        <v>1476908.5350540001</v>
+        <v>2181691.2470550002</v>
       </c>
       <c r="H73" s="11">
         <f t="shared" si="7"/>
-        <v>8.8215451417093735</v>
+        <v>11.014682782092679</v>
       </c>
       <c r="I73" s="9">
-        <v>69.363</v>
+        <v>48.295999999999999</v>
       </c>
       <c r="J73" s="10">
-        <v>1441690.8149880001</v>
+        <v>2070564.8500910001</v>
       </c>
       <c r="K73" s="11">
         <f t="shared" si="8"/>
-        <v>9.044274324928276</v>
+        <v>10.450617028325327</v>
       </c>
       <c r="L73" s="9">
         <f t="shared" si="9"/>
-        <v>61.300333333333334</v>
+        <v>45.645000000000003</v>
       </c>
       <c r="M73" s="10">
         <f t="shared" si="10"/>
-        <v>1684676.0836456667</v>
+        <v>2196180.3123313333</v>
       </c>
       <c r="N73" s="11">
         <f t="shared" si="11"/>
-        <v>9.5155926286425849</v>
+        <v>11.180844926424946</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <v>42</v>
       </c>
       <c r="C74" s="9">
-        <v>55.463999999999999</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="D74" s="10">
-        <v>1802971.296697</v>
+        <v>2627982.760433</v>
       </c>
       <c r="E74" s="11">
         <f t="shared" si="6"/>
-        <v>9.470845954132411</v>
+        <v>13.537305295950155</v>
       </c>
       <c r="F74" s="9">
-        <v>76.522000000000006</v>
+        <v>37.387</v>
       </c>
       <c r="G74" s="10">
-        <v>1306796.649373</v>
+        <v>2674726.5092139998</v>
       </c>
       <c r="H74" s="11">
         <f t="shared" si="7"/>
-        <v>7.8055722537309524</v>
+        <v>13.503864979805815</v>
       </c>
       <c r="I74" s="9">
-        <v>79.194000000000003</v>
+        <v>36.53</v>
       </c>
       <c r="J74" s="10">
-        <v>1262721.923378</v>
+        <v>2773694.2834160002</v>
       </c>
       <c r="K74" s="11">
         <f t="shared" si="8"/>
-        <v>7.921534459681288</v>
+        <v>13.816671229126746</v>
       </c>
       <c r="L74" s="9">
         <f t="shared" si="9"/>
-        <v>70.393333333333331</v>
+        <v>37.479000000000006</v>
       </c>
       <c r="M74" s="10">
         <f t="shared" si="10"/>
-        <v>1457496.6231493335</v>
+        <v>2692134.5176876667</v>
       </c>
       <c r="N74" s="11">
         <f t="shared" si="11"/>
-        <v>8.2864239037787666</v>
+        <v>13.616949936408831</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <v>56</v>
       </c>
       <c r="C75" s="9">
-        <v>46.893000000000001</v>
+        <v>37.341999999999999</v>
       </c>
       <c r="D75" s="10">
-        <v>2132514.4477849999</v>
+        <v>2677949.7616619999</v>
       </c>
       <c r="E75" s="11">
         <f t="shared" si="6"/>
-        <v>11.201906467916322</v>
+        <v>13.964356488672273</v>
       </c>
       <c r="F75" s="9">
-        <v>65.373000000000005</v>
+        <v>34.411999999999999</v>
       </c>
       <c r="G75" s="10">
-        <v>1529660.109524</v>
+        <v>2905963.0361500001</v>
       </c>
       <c r="H75" s="11">
         <f t="shared" si="7"/>
-        <v>9.1367690024933843</v>
+        <v>14.671306520981055</v>
       </c>
       <c r="I75" s="9">
-        <v>63.960999999999999</v>
+        <v>32.895000000000003</v>
       </c>
       <c r="J75" s="10">
-        <v>1563452.7290070001</v>
+        <v>3039975.680195</v>
       </c>
       <c r="K75" s="11">
         <f t="shared" si="8"/>
-        <v>9.8081330810962921</v>
+        <v>15.343456452348381</v>
       </c>
       <c r="L75" s="9">
         <f t="shared" si="9"/>
-        <v>58.742333333333335</v>
+        <v>34.883000000000003</v>
       </c>
       <c r="M75" s="10">
         <f t="shared" si="10"/>
-        <v>1741875.7621053334</v>
+        <v>2874629.4926689998</v>
       </c>
       <c r="N75" s="11">
         <f t="shared" si="11"/>
-        <v>9.9299596543094975</v>
+        <v>14.630326137851293</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <v>72</v>
       </c>
       <c r="C76" s="9">
-        <v>41.402999999999999</v>
+        <v>33.381</v>
       </c>
       <c r="D76" s="10">
-        <v>2415283.9166239998</v>
+        <v>2995626.3854769999</v>
       </c>
       <c r="E76" s="11">
         <f t="shared" si="6"/>
-        <v>12.687269038475474</v>
+        <v>15.621371438842456</v>
       </c>
       <c r="F76" s="9">
-        <v>66.623000000000005</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="G76" s="10">
-        <v>1500960.614793</v>
+        <v>2801120.4481790001</v>
       </c>
       <c r="H76" s="11">
         <f t="shared" si="7"/>
-        <v>8.9653422992059788</v>
+        <v>14.141988795518207</v>
       </c>
       <c r="I76" s="9">
-        <v>67.301000000000002</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="J76" s="10">
-        <v>1485862.0228530001</v>
+        <v>2908160.2977959998</v>
       </c>
       <c r="K76" s="11">
         <f t="shared" si="8"/>
-        <v>9.3213770969227792</v>
+        <v>14.678153899842959</v>
       </c>
       <c r="L76" s="9">
         <f t="shared" si="9"/>
-        <v>58.44233333333333</v>
+        <v>34.489000000000004</v>
       </c>
       <c r="M76" s="10">
         <f t="shared" si="10"/>
-        <v>1800702.1847566667</v>
+        <v>2901635.7104839999</v>
       </c>
       <c r="N76" s="11">
         <f t="shared" si="11"/>
-        <v>9.980932771335846</v>
+        <v>14.79746199271265</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>96</v>
       </c>
       <c r="C77" s="14">
-        <v>37.905000000000001</v>
+        <v>35.912999999999997</v>
       </c>
       <c r="D77" s="15">
-        <v>2638104.7855219999</v>
+        <v>2784507.0030350001</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="6"/>
-        <v>13.858092599920855</v>
+        <v>14.520006682816808</v>
       </c>
       <c r="F77" s="14">
-        <v>69.56</v>
+        <v>37.831000000000003</v>
       </c>
       <c r="G77" s="15">
-        <v>1448037.1855949999</v>
+        <v>2790879.406101</v>
       </c>
       <c r="H77" s="16">
         <f t="shared" si="7"/>
-        <v>8.586802760207016</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="16"/>
+        <v>13.345378129047607</v>
+      </c>
+      <c r="I77" s="14">
+        <v>36.551000000000002</v>
+      </c>
+      <c r="J77" s="15">
+        <v>2735828.4088420002</v>
+      </c>
+      <c r="K77" s="16">
+        <f t="shared" si="8"/>
+        <v>13.808733003201006</v>
+      </c>
       <c r="L77" s="14">
         <f t="shared" si="9"/>
-        <v>53.732500000000002</v>
-      </c>
-      <c r="M77" s="20">
+        <v>36.765000000000001</v>
+      </c>
+      <c r="M77" s="15">
         <f t="shared" si="10"/>
-        <v>2043070.9855585</v>
+        <v>2770404.9393259999</v>
       </c>
       <c r="N77" s="16">
         <f t="shared" si="11"/>
-        <v>10.855794909970687</v>
+        <v>13.881399882134277</v>
       </c>
     </row>
-    <row r="106" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="107" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="29"/>
+    <row r="99" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="29"/>
     </row>
-    <row r="108" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C109" s="30" t="s">
+    <row r="101" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="31"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="30" t="s">
+      <c r="G102" s="31"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="31"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="30" t="s">
+      <c r="J102" s="31"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="31"/>
-      <c r="K109" s="32"/>
-      <c r="L109" s="30" t="s">
+      <c r="M102" s="31"/>
+      <c r="N102" s="32"/>
+    </row>
+    <row r="103" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M109" s="31"/>
-      <c r="N109" s="32"/>
+      <c r="C103" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M103" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N103" s="22" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="110" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="21" t="s">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="8">
+        <v>1</v>
+      </c>
+      <c r="C104" s="17">
+        <v>195.40100000000001</v>
+      </c>
+      <c r="D104" s="18">
+        <v>511768.10763500002</v>
+      </c>
+      <c r="E104" s="19">
+        <f>C$104/C104</f>
+        <v>1</v>
+      </c>
+      <c r="F104" s="17">
+        <v>193.28800000000001</v>
+      </c>
+      <c r="G104" s="18">
+        <v>517360.01531400002</v>
+      </c>
+      <c r="H104" s="19">
+        <f>F$104/F104</f>
+        <v>1</v>
+      </c>
+      <c r="I104" s="17">
+        <v>200.69</v>
+      </c>
+      <c r="J104" s="18">
+        <v>498278.44796199998</v>
+      </c>
+      <c r="K104" s="19">
+        <f>I$104/I104</f>
+        <v>1</v>
+      </c>
+      <c r="L104" s="17">
+        <f t="shared" ref="L104" si="12">AVERAGE(C104,F104,I104)</f>
+        <v>196.45966666666666</v>
+      </c>
+      <c r="M104" s="18">
+        <f t="shared" ref="M104" si="13">AVERAGE(D104,G104,J104)</f>
+        <v>509135.52363700001</v>
+      </c>
+      <c r="N104" s="19">
+        <f>L$104/L104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="12">
+        <v>2</v>
+      </c>
+      <c r="C105" s="9">
+        <v>103.898</v>
+      </c>
+      <c r="D105" s="10">
+        <v>962482.43469599995</v>
+      </c>
+      <c r="E105" s="11">
+        <f>C$104/C105</f>
+        <v>1.8807003022194846</v>
+      </c>
+      <c r="F105" s="9">
+        <v>104.36</v>
+      </c>
+      <c r="G105" s="10">
+        <v>958221.54081999999</v>
+      </c>
+      <c r="H105" s="11">
+        <f>F$104/F105</f>
+        <v>1.8521272518206211</v>
+      </c>
+      <c r="I105" s="9">
+        <v>105.932</v>
+      </c>
+      <c r="J105" s="10">
+        <v>944001.81248299999</v>
+      </c>
+      <c r="K105" s="11">
+        <f>I$104/I105</f>
+        <v>1.8945172374730959</v>
+      </c>
+      <c r="L105" s="9">
+        <f t="shared" ref="L105:L113" si="14">AVERAGE(C105,F105,I105)</f>
+        <v>104.73</v>
+      </c>
+      <c r="M105" s="10">
+        <f t="shared" ref="M105:M113" si="15">AVERAGE(D105,G105,J105)</f>
+        <v>954901.92933299998</v>
+      </c>
+      <c r="N105" s="11">
+        <f>L$104/L105</f>
+        <v>1.87586810528661</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106" s="12">
+        <v>4</v>
+      </c>
+      <c r="C106" s="9">
+        <v>56.628999999999998</v>
+      </c>
+      <c r="D106" s="10">
+        <v>1765879.6729590001</v>
+      </c>
+      <c r="E106" s="11">
+        <f>C$104/C106</f>
+        <v>3.4505465397587813</v>
+      </c>
+      <c r="F106" s="9">
+        <v>55.402999999999999</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1804956.4103029999</v>
+      </c>
+      <c r="H106" s="11">
+        <f>F$104/F106</f>
+        <v>3.4887641463458658</v>
+      </c>
+      <c r="I106" s="9">
+        <v>59.613999999999997</v>
+      </c>
+      <c r="J106" s="10">
+        <v>1677458.315161</v>
+      </c>
+      <c r="K106" s="11">
+        <f>I$104/I106</f>
+        <v>3.3664910926963465</v>
+      </c>
+      <c r="L106" s="9">
+        <f t="shared" si="14"/>
+        <v>57.215333333333326</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="15"/>
+        <v>1749431.4661410002</v>
+      </c>
+      <c r="N106" s="11">
+        <f>L$104/L106</f>
+        <v>3.4336891043193551</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="12">
         <v>8</v>
       </c>
-      <c r="F110" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J110" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K110" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L110" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M110" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="N110" s="22" t="s">
-        <v>8</v>
+      <c r="C107" s="9">
+        <v>33.5</v>
+      </c>
+      <c r="D107" s="10">
+        <v>2985074.6268659998</v>
+      </c>
+      <c r="E107" s="11">
+        <f>C$104/C107</f>
+        <v>5.832865671641791</v>
+      </c>
+      <c r="F107" s="9">
+        <v>32.692</v>
+      </c>
+      <c r="G107" s="10">
+        <v>3058758.7556969998</v>
+      </c>
+      <c r="H107" s="11">
+        <f>F$104/F107</f>
+        <v>5.9123944695950081</v>
+      </c>
+      <c r="I107" s="9">
+        <v>36.173999999999999</v>
+      </c>
+      <c r="J107" s="10">
+        <v>2764416.4316909998</v>
+      </c>
+      <c r="K107" s="11">
+        <f>I$104/I107</f>
+        <v>5.5479073367612095</v>
+      </c>
+      <c r="L107" s="9">
+        <f t="shared" si="14"/>
+        <v>34.122000000000007</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="15"/>
+        <v>2936083.2714179996</v>
+      </c>
+      <c r="N107" s="11">
+        <f>L$104/L107</f>
+        <v>5.7575659887071868</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B111" s="8">
-        <v>1</v>
-      </c>
-      <c r="C111" s="17">
-        <v>230.86500000000001</v>
-      </c>
-      <c r="D111" s="18">
-        <v>433155.45082799997</v>
-      </c>
-      <c r="E111" s="19">
-        <f>C$111/C111</f>
-        <v>1</v>
-      </c>
-      <c r="F111" s="17">
-        <v>235.48599999999999</v>
-      </c>
-      <c r="G111" s="18">
-        <v>424653.69491199998</v>
-      </c>
-      <c r="H111" s="19">
-        <f>F$111/F111</f>
-        <v>1</v>
-      </c>
-      <c r="I111" s="17">
-        <v>272.23899999999998</v>
-      </c>
-      <c r="J111" s="18">
-        <v>367324.299604</v>
-      </c>
-      <c r="K111" s="19">
-        <f>I$111/I111</f>
-        <v>1</v>
-      </c>
-      <c r="L111" s="17">
-        <f t="shared" ref="L111" si="12">AVERAGE(C111,F111,I111)</f>
-        <v>246.19666666666663</v>
-      </c>
-      <c r="M111" s="18">
-        <f t="shared" ref="M111" si="13">AVERAGE(D111,G111,J111)</f>
-        <v>408377.81511466665</v>
-      </c>
-      <c r="N111" s="19">
-        <f>L$111/L111</f>
-        <v>1</v>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="12">
+        <v>16</v>
+      </c>
+      <c r="C108" s="9">
+        <v>35.994999999999997</v>
+      </c>
+      <c r="D108" s="10">
+        <v>2778163.6338379998</v>
+      </c>
+      <c r="E108" s="11">
+        <f>C$104/C108</f>
+        <v>5.4285595221558554</v>
+      </c>
+      <c r="F108" s="9">
+        <v>34.101999999999997</v>
+      </c>
+      <c r="G108" s="10">
+        <v>2932379.3325899998</v>
+      </c>
+      <c r="H108" s="11">
+        <f>F$104/F108</f>
+        <v>5.6679373643774564</v>
+      </c>
+      <c r="I108" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="J108" s="10">
+        <v>2531645.5696200002</v>
+      </c>
+      <c r="K108" s="11">
+        <f>I$104/I108</f>
+        <v>5.080759493670886</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="14"/>
+        <v>36.532333333333334</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="15"/>
+        <v>2747396.1786826667</v>
+      </c>
+      <c r="N108" s="11">
+        <f>L$104/L108</f>
+        <v>5.3776928200589431</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="12">
+        <v>28</v>
+      </c>
+      <c r="C109" s="9">
+        <v>34.966000000000001</v>
+      </c>
+      <c r="D109" s="10">
+        <v>2859839.2770329998</v>
+      </c>
+      <c r="E109" s="11">
+        <f>C$104/C109</f>
+        <v>5.5883143625235947</v>
+      </c>
+      <c r="F109" s="9">
+        <v>27.407</v>
+      </c>
+      <c r="G109" s="10">
+        <v>3648702.886124</v>
+      </c>
+      <c r="H109" s="11">
+        <f>F$104/F109</f>
+        <v>7.0525048345313248</v>
+      </c>
+      <c r="I109" s="9">
+        <v>30.814</v>
+      </c>
+      <c r="J109" s="10">
+        <v>3245172.8054519999</v>
+      </c>
+      <c r="K109" s="11">
+        <f>I$104/I109</f>
+        <v>6.512948659700136</v>
+      </c>
+      <c r="L109" s="9">
+        <f t="shared" si="14"/>
+        <v>31.062333333333338</v>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="15"/>
+        <v>3251238.3228696664</v>
+      </c>
+      <c r="N109" s="11">
+        <f>L$104/L109</f>
+        <v>6.3246912122935592</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="12">
+        <v>42</v>
+      </c>
+      <c r="C110" s="9">
+        <v>33.326999999999998</v>
+      </c>
+      <c r="D110" s="10">
+        <v>3000480.076812</v>
+      </c>
+      <c r="E110" s="11">
+        <f>C$104/C110</f>
+        <v>5.863143997359499</v>
+      </c>
+      <c r="F110" s="9">
+        <v>27.323</v>
+      </c>
+      <c r="G110" s="10">
+        <v>3659920.2137389998</v>
+      </c>
+      <c r="H110" s="11">
+        <f>F$104/F110</f>
+        <v>7.074186582732497</v>
+      </c>
+      <c r="I110" s="9">
+        <v>31.695</v>
+      </c>
+      <c r="J110" s="10">
+        <v>3155071.7778830002</v>
+      </c>
+      <c r="K110" s="11">
+        <f>I$104/I110</f>
+        <v>6.3319135510332858</v>
+      </c>
+      <c r="L110" s="9">
+        <f t="shared" si="14"/>
+        <v>30.781666666666666</v>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" si="15"/>
+        <v>3271824.0228113332</v>
+      </c>
+      <c r="N110" s="11">
+        <f>L$104/L110</f>
+        <v>6.3823596296496836</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="12">
+        <v>56</v>
+      </c>
+      <c r="C111" s="9">
+        <v>30.734000000000002</v>
+      </c>
+      <c r="D111" s="10">
+        <v>3253725.5157150002</v>
+      </c>
+      <c r="E111" s="11">
+        <f>C$104/C111</f>
+        <v>6.3578121949632331</v>
+      </c>
+      <c r="F111" s="9">
+        <v>29.76</v>
+      </c>
+      <c r="G111" s="10">
+        <v>3439144.3408880001</v>
+      </c>
+      <c r="H111" s="11">
+        <f>F$104/F111</f>
+        <v>6.4948924731182798</v>
+      </c>
+      <c r="I111" s="9">
+        <v>31.491</v>
+      </c>
+      <c r="J111" s="10">
+        <v>3175510.4633070002</v>
+      </c>
+      <c r="K111" s="11">
+        <f>I$104/I111</f>
+        <v>6.3729319488107716</v>
+      </c>
+      <c r="L111" s="9">
+        <f t="shared" si="14"/>
+        <v>30.661666666666665</v>
+      </c>
+      <c r="M111" s="10">
+        <f t="shared" si="15"/>
+        <v>3289460.1066366672</v>
+      </c>
+      <c r="N111" s="11">
+        <f>L$104/L111</f>
+        <v>6.4073381529597215</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C112" s="9">
-        <v>173.655</v>
+        <v>30.242000000000001</v>
       </c>
       <c r="D112" s="10">
-        <v>575854.42400200001</v>
+        <v>3306550.2760970001</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" ref="E112:E120" si="14">C$111/C112</f>
-        <v>1.3294463159713226</v>
+        <f>C$104/C112</f>
+        <v>6.4612459493419747</v>
       </c>
       <c r="F112" s="9">
-        <v>180.77099999999999</v>
+        <v>29.972999999999999</v>
       </c>
       <c r="G112" s="10">
-        <v>553186.07519999996</v>
+        <v>3336224.7280979999</v>
       </c>
       <c r="H112" s="11">
-        <f t="shared" ref="H112:H120" si="15">F$111/F112</f>
-        <v>1.3026757610457429</v>
+        <f>F$104/F112</f>
+        <v>6.4487371968104634</v>
       </c>
       <c r="I112" s="9">
-        <v>197.244</v>
+        <v>39.167999999999999</v>
       </c>
       <c r="J112" s="10">
-        <v>506986.27081199997</v>
+        <v>2553104.5751629998</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" ref="K112:K120" si="16">I$111/I112</f>
-        <v>1.3802143537952991</v>
+        <f>I$104/I112</f>
+        <v>5.1238255718954253</v>
       </c>
       <c r="L112" s="9">
-        <f t="shared" ref="L112:L120" si="17">AVERAGE(C112,F112,I112)</f>
-        <v>183.89</v>
+        <f t="shared" si="14"/>
+        <v>33.12766666666667</v>
       </c>
       <c r="M112" s="10">
-        <f t="shared" ref="M112:M120" si="18">AVERAGE(D112,G112,J112)</f>
-        <v>545342.25667133334</v>
+        <f t="shared" si="15"/>
+        <v>3065293.1931193336</v>
       </c>
       <c r="N112" s="11">
-        <f t="shared" ref="N112:N120" si="19">L$111/L112</f>
-        <v>1.3388257472764513</v>
+        <f>L$104/L112</f>
+        <v>5.9303804473602115</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B113" s="12">
-        <v>4</v>
-      </c>
-      <c r="C113" s="9">
-        <v>109.52</v>
-      </c>
-      <c r="D113" s="10">
-        <v>916993.72776299994</v>
-      </c>
-      <c r="E113" s="11">
+    <row r="113" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="13">
+        <v>96</v>
+      </c>
+      <c r="C113" s="14">
+        <v>29.277999999999999</v>
+      </c>
+      <c r="D113" s="15">
+        <v>3415533.8479399998</v>
+      </c>
+      <c r="E113" s="16">
+        <f>C$104/C113</f>
+        <v>6.6739872942140863</v>
+      </c>
+      <c r="F113" s="14">
+        <v>40.709000000000003</v>
+      </c>
+      <c r="G113" s="15">
+        <v>2456459.2596229999</v>
+      </c>
+      <c r="H113" s="16">
+        <f>F$104/F113</f>
+        <v>4.7480409737404505</v>
+      </c>
+      <c r="I113" s="14">
+        <v>33.207999999999998</v>
+      </c>
+      <c r="J113" s="15">
+        <v>3011322.5728739998</v>
+      </c>
+      <c r="K113" s="16">
+        <f>I$104/I113</f>
+        <v>6.0434232715008438</v>
+      </c>
+      <c r="L113" s="14">
         <f t="shared" si="14"/>
-        <v>2.1079711468224982</v>
-      </c>
-      <c r="F113" s="9">
-        <v>103.29300000000001</v>
-      </c>
-      <c r="G113" s="10">
-        <v>968119.81450800004</v>
-      </c>
-      <c r="H113" s="11">
+        <v>34.398333333333333</v>
+      </c>
+      <c r="M113" s="20">
         <f t="shared" si="15"/>
-        <v>2.2797866263928821</v>
-      </c>
-      <c r="I113" s="9">
-        <v>98.671999999999997</v>
-      </c>
-      <c r="J113" s="10">
-        <v>1013458.73196</v>
-      </c>
-      <c r="K113" s="11">
-        <f t="shared" si="16"/>
-        <v>2.7590299173017674</v>
-      </c>
-      <c r="L113" s="9">
-        <f t="shared" si="17"/>
-        <v>103.82833333333333</v>
-      </c>
-      <c r="M113" s="10">
-        <f t="shared" si="18"/>
-        <v>966190.75807699992</v>
-      </c>
-      <c r="N113" s="11">
-        <f t="shared" si="19"/>
-        <v>2.3711896238984216</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B114" s="12">
-        <v>8</v>
-      </c>
-      <c r="C114" s="9">
-        <v>60.442999999999998</v>
-      </c>
-      <c r="D114" s="10">
-        <v>1654451.3012260001</v>
-      </c>
-      <c r="E114" s="11">
-        <f t="shared" si="14"/>
-        <v>3.819548996575286</v>
-      </c>
-      <c r="F114" s="9">
-        <v>60.192999999999998</v>
-      </c>
-      <c r="G114" s="10">
-        <v>1661322.74517</v>
-      </c>
-      <c r="H114" s="11">
-        <f t="shared" si="15"/>
-        <v>3.9121824796903293</v>
-      </c>
-      <c r="I114" s="9">
-        <v>60.975000000000001</v>
-      </c>
-      <c r="J114" s="10">
-        <v>1640016.400164</v>
-      </c>
-      <c r="K114" s="11">
-        <f t="shared" si="16"/>
-        <v>4.464764247642476</v>
-      </c>
-      <c r="L114" s="9">
-        <f t="shared" si="17"/>
-        <v>60.536999999999999</v>
-      </c>
-      <c r="M114" s="10">
-        <f t="shared" si="18"/>
-        <v>1651930.1488533334</v>
-      </c>
-      <c r="N114" s="11">
-        <f t="shared" si="19"/>
-        <v>4.0668792088584933</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B115" s="12">
-        <v>16</v>
-      </c>
-      <c r="C115" s="9">
-        <v>36.433999999999997</v>
-      </c>
-      <c r="D115" s="10">
-        <v>2744689</v>
-      </c>
-      <c r="E115" s="11">
-        <f t="shared" si="14"/>
-        <v>6.3365263215677672</v>
-      </c>
-      <c r="F115" s="9">
-        <v>36.569000000000003</v>
-      </c>
-      <c r="G115" s="10">
-        <v>2734556.5916490001</v>
-      </c>
-      <c r="H115" s="11">
-        <f t="shared" si="15"/>
-        <v>6.439497935409773</v>
-      </c>
-      <c r="I115" s="9">
-        <v>35.24</v>
-      </c>
-      <c r="J115" s="10">
-        <v>2837684.4494889998</v>
-      </c>
-      <c r="K115" s="11">
-        <f t="shared" si="16"/>
-        <v>7.7252837684449478</v>
-      </c>
-      <c r="L115" s="9">
-        <f t="shared" si="17"/>
-        <v>36.080999999999996</v>
-      </c>
-      <c r="M115" s="10">
-        <f t="shared" si="18"/>
-        <v>2772310.0137126665</v>
-      </c>
-      <c r="N115" s="11">
-        <f t="shared" si="19"/>
-        <v>6.8234435483125928</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B116" s="12">
-        <v>28</v>
-      </c>
-      <c r="C116" s="9">
-        <v>26.353999999999999</v>
-      </c>
-      <c r="D116" s="10">
-        <v>3794490.3999390001</v>
-      </c>
-      <c r="E116" s="11">
-        <f t="shared" si="14"/>
-        <v>8.7601502618198381</v>
-      </c>
-      <c r="F116" s="9">
-        <v>27.401</v>
-      </c>
-      <c r="G116" s="10">
-        <v>3649501.8429979999</v>
-      </c>
-      <c r="H116" s="11">
-        <f t="shared" si="15"/>
-        <v>8.5940659100032839</v>
-      </c>
-      <c r="I116" s="9">
-        <v>26.577000000000002</v>
-      </c>
-      <c r="J116" s="10">
-        <v>3762651.9170710002</v>
-      </c>
-      <c r="K116" s="11">
-        <f t="shared" si="16"/>
-        <v>10.243405952515332</v>
-      </c>
-      <c r="L116" s="9">
-        <f t="shared" si="17"/>
-        <v>26.777333333333331</v>
-      </c>
-      <c r="M116" s="10">
-        <f t="shared" si="18"/>
-        <v>3735548.0533360001</v>
-      </c>
-      <c r="N116" s="11">
-        <f t="shared" si="19"/>
-        <v>9.1942189911865757</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B117" s="12">
-        <v>42</v>
-      </c>
-      <c r="C117" s="9">
-        <v>19.27</v>
-      </c>
-      <c r="D117" s="10">
-        <v>5189144.3101030001</v>
-      </c>
-      <c r="E117" s="11">
-        <f t="shared" si="14"/>
-        <v>11.980539699014011</v>
-      </c>
-      <c r="F117" s="9">
-        <v>19.189</v>
-      </c>
-      <c r="G117" s="10">
-        <v>5211318.9848349998</v>
-      </c>
-      <c r="H117" s="11">
-        <f t="shared" si="15"/>
-        <v>12.271926624628692</v>
-      </c>
-      <c r="I117" s="9">
-        <v>19.303000000000001</v>
-      </c>
-      <c r="J117" s="10">
-        <v>5180541.8846810004</v>
-      </c>
-      <c r="K117" s="11">
-        <f t="shared" si="16"/>
-        <v>14.103455421437081</v>
-      </c>
-      <c r="L117" s="9">
-        <f t="shared" si="17"/>
-        <v>19.254000000000001</v>
-      </c>
-      <c r="M117" s="10">
-        <f t="shared" si="18"/>
-        <v>5193668.3932063328</v>
-      </c>
-      <c r="N117" s="11">
-        <f t="shared" si="19"/>
-        <v>12.786780236141405</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B118" s="12">
-        <v>56</v>
-      </c>
-      <c r="C118" s="9">
-        <v>34.734999999999999</v>
-      </c>
-      <c r="D118" s="10">
-        <v>2878940.5498779998</v>
-      </c>
-      <c r="E118" s="11">
-        <f t="shared" si="14"/>
-        <v>6.6464661004750258</v>
-      </c>
-      <c r="F118" s="9">
-        <v>37.518000000000001</v>
-      </c>
-      <c r="G118" s="10">
-        <v>2665387.2807720001</v>
-      </c>
-      <c r="H118" s="11">
-        <f t="shared" si="15"/>
-        <v>6.2766138919985073</v>
-      </c>
-      <c r="I118" s="9">
-        <v>34.764000000000003</v>
-      </c>
-      <c r="J118" s="10">
-        <v>2876538.9483369999</v>
-      </c>
-      <c r="K118" s="11">
-        <f t="shared" si="16"/>
-        <v>7.8310608675641458</v>
-      </c>
-      <c r="L118" s="9">
-        <f t="shared" si="17"/>
-        <v>35.672333333333334</v>
-      </c>
-      <c r="M118" s="10">
-        <f t="shared" si="18"/>
-        <v>2806955.5929956664</v>
-      </c>
-      <c r="N118" s="11">
-        <f t="shared" si="19"/>
-        <v>6.9016137622994469</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B119" s="12">
-        <v>72</v>
-      </c>
-      <c r="C119" s="9">
-        <v>31.93</v>
-      </c>
-      <c r="D119" s="10">
-        <v>3131066.44123</v>
-      </c>
-      <c r="E119" s="11">
-        <f t="shared" si="14"/>
-        <v>7.2303476354525529</v>
-      </c>
-      <c r="F119" s="9">
-        <v>35.950000000000003</v>
-      </c>
-      <c r="G119" s="10">
-        <v>2849408.7476849998</v>
-      </c>
-      <c r="H119" s="11">
-        <f t="shared" si="15"/>
-        <v>6.5503755215577186</v>
-      </c>
-      <c r="I119" s="9">
-        <v>32.947000000000003</v>
-      </c>
-      <c r="J119" s="10">
-        <v>3035085.589414</v>
-      </c>
-      <c r="K119" s="11">
-        <f t="shared" si="16"/>
-        <v>8.2629374449874025</v>
-      </c>
-      <c r="L119" s="9">
-        <f t="shared" si="17"/>
-        <v>33.609000000000002</v>
-      </c>
-      <c r="M119" s="10">
-        <f t="shared" si="18"/>
-        <v>3005186.9261096665</v>
-      </c>
-      <c r="N119" s="11">
-        <f t="shared" si="19"/>
-        <v>7.3253196068513375</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="13">
-        <v>96</v>
-      </c>
-      <c r="C120" s="14">
-        <v>37.283999999999999</v>
-      </c>
-      <c r="D120" s="15">
-        <v>2682043.717313</v>
-      </c>
-      <c r="E120" s="16">
-        <f t="shared" si="14"/>
-        <v>6.1920663018989384</v>
-      </c>
-      <c r="F120" s="14">
-        <v>35.970999999999997</v>
-      </c>
-      <c r="G120" s="15">
-        <v>2780017.2361070001</v>
-      </c>
-      <c r="H120" s="16">
-        <f t="shared" si="15"/>
-        <v>6.5465513886186102</v>
-      </c>
-      <c r="I120" s="14">
-        <v>35.83</v>
-      </c>
-      <c r="J120" s="15">
-        <v>2790957.2983530001</v>
-      </c>
-      <c r="K120" s="16">
-        <f t="shared" si="16"/>
-        <v>7.5980742394641361</v>
-      </c>
-      <c r="L120" s="14">
-        <f t="shared" si="17"/>
-        <v>36.361666666666665</v>
-      </c>
-      <c r="M120" s="20">
-        <f t="shared" si="18"/>
-        <v>2751006.0839243331</v>
-      </c>
-      <c r="N120" s="16">
-        <f t="shared" si="19"/>
-        <v>6.7707750836503635</v>
+        <v>2961105.2268123333</v>
+      </c>
+      <c r="N113" s="16">
+        <f>L$104/L113</f>
+        <v>5.7113135326323947</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B107:N107"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="I109:K109"/>
-    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="B100:N100"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:K102"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
     <mergeCell ref="B64:N64"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="F66:H66"/>
     <mergeCell ref="I66:K66"/>
     <mergeCell ref="L66:N66"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
